--- a/June2020/ISWRPQAQ_stats.xlsx
+++ b/June2020/ISWRPQAQ_stats.xlsx
@@ -839,10 +839,10 @@
         <v>695</v>
       </c>
       <c r="AQ4">
-        <v>1.196623884892086</v>
+        <v>1.196638273381295</v>
       </c>
       <c r="AR4">
-        <v>0.7285793210526754</v>
+        <v>0.728594714808296</v>
       </c>
       <c r="AS4">
         <v>0.0479</v>
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>-0.1029110148201438</v>
+        <v>-0.1029280533812949</v>
       </c>
       <c r="AZ4">
-        <v>0.8697146542458458</v>
+        <v>0.8697063986118663</v>
       </c>
       <c r="BA4">
         <v>-3.7</v>
@@ -887,16 +887,16 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>-0.04139473870503625</v>
+        <v>-0.04144134949640314</v>
       </c>
       <c r="BH4">
-        <v>1.221553797928355</v>
+        <v>1.22162480869723</v>
       </c>
       <c r="BI4">
         <v>-5.96</v>
       </c>
       <c r="BJ4">
-        <v>-0.165</v>
+        <v>-0.1655</v>
       </c>
       <c r="BK4">
         <v>0.049</v>
@@ -940,10 +940,10 @@
         <v>696</v>
       </c>
       <c r="K5">
-        <v>39.35574712643665</v>
+        <v>39.3560344827585</v>
       </c>
       <c r="L5">
-        <v>1.022056757982885</v>
+        <v>1.022350694573109</v>
       </c>
       <c r="M5">
         <v>38.3</v>
@@ -964,10 +964,10 @@
         <v>696</v>
       </c>
       <c r="S5">
-        <v>5.231091954022986</v>
+        <v>5.231293103448272</v>
       </c>
       <c r="T5">
-        <v>1.65735012999752</v>
+        <v>1.657293119442343</v>
       </c>
       <c r="U5">
         <v>2.95</v>
@@ -1015,7 +1015,7 @@
         <v>131.8692528735632</v>
       </c>
       <c r="AJ5">
-        <v>55.02698385823565</v>
+        <v>55.02698307379381</v>
       </c>
       <c r="AK5">
         <v>57.6</v>
@@ -1036,10 +1036,10 @@
         <v>696</v>
       </c>
       <c r="AQ5">
-        <v>1.402886925287354</v>
+        <v>1.402914224137929</v>
       </c>
       <c r="AR5">
-        <v>0.9231332106894041</v>
+        <v>0.9231734627599222</v>
       </c>
       <c r="AS5">
         <v>0.0568</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>0.4106710991379312</v>
+        <v>0.410646662356322</v>
       </c>
       <c r="AZ5">
-        <v>0.4422140442350607</v>
+        <v>0.4422007319359797</v>
       </c>
       <c r="BA5">
         <v>-0.055</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>0.6591223189655173</v>
+        <v>0.6590605977011497</v>
       </c>
       <c r="BH5">
-        <v>0.8480538766676264</v>
+        <v>0.8479988614168822</v>
       </c>
       <c r="BI5">
         <v>-0.0554</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>0.3108485969827587</v>
+        <v>0.3108251903735633</v>
       </c>
       <c r="AZ6">
-        <v>0.3877165566417204</v>
+        <v>0.3877064164093831</v>
       </c>
       <c r="BA6">
         <v>-0.08749999999999999</v>
@@ -1269,7 +1269,7 @@
         <v>0.0038225</v>
       </c>
       <c r="BC6">
-        <v>0.07715</v>
+        <v>0.0771</v>
       </c>
       <c r="BD6">
         <v>0.53325</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>0.5179828554597701</v>
+        <v>0.5179177405172409</v>
       </c>
       <c r="BH6">
-        <v>0.7380590656371679</v>
+        <v>0.7379862485032298</v>
       </c>
       <c r="BI6">
         <v>-0.0882</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>0.2812702205459768</v>
+        <v>0.2812372285919538</v>
       </c>
       <c r="AZ7">
-        <v>0.3813507049970524</v>
+        <v>0.3812978907508741</v>
       </c>
       <c r="BA7">
         <v>-0.114</v>
@@ -1466,7 +1466,7 @@
         <v>-0.007934999999999999</v>
       </c>
       <c r="BC7">
-        <v>0.04685</v>
+        <v>0.04679999999999999</v>
       </c>
       <c r="BD7">
         <v>0.504</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>0.4804858696839076</v>
+        <v>0.4804326571839078</v>
       </c>
       <c r="BH7">
-        <v>0.7214808837744365</v>
+        <v>0.721401418348418</v>
       </c>
       <c r="BI7">
         <v>-0.119</v>
@@ -1490,7 +1490,7 @@
         <v>-0.007035</v>
       </c>
       <c r="BK7">
-        <v>0.04715</v>
+        <v>0.0471</v>
       </c>
       <c r="BL7">
         <v>0.901</v>
@@ -1603,10 +1603,10 @@
         <v>696</v>
       </c>
       <c r="AI8">
-        <v>131.7498563218391</v>
+        <v>131.7512931034483</v>
       </c>
       <c r="AJ8">
-        <v>55.42004208521964</v>
+        <v>55.42154139072675</v>
       </c>
       <c r="AK8">
         <v>56.9</v>
@@ -1651,16 +1651,16 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>0.2760353765804595</v>
+        <v>0.276019568965517</v>
       </c>
       <c r="AZ8">
-        <v>0.3820176491732376</v>
+        <v>0.3820085202385542</v>
       </c>
       <c r="BA8">
         <v>-0.123</v>
       </c>
       <c r="BB8">
-        <v>-0.007192499999999999</v>
+        <v>-0.007207499999999999</v>
       </c>
       <c r="BC8">
         <v>0.0423</v>
@@ -1675,16 +1675,16 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>0.4756064341379312</v>
+        <v>0.4755648188936784</v>
       </c>
       <c r="BH8">
-        <v>0.72435654860618</v>
+        <v>0.7243275218292912</v>
       </c>
       <c r="BI8">
         <v>-0.124</v>
       </c>
       <c r="BJ8">
-        <v>-0.007952500000000001</v>
+        <v>-0.007962500000000001</v>
       </c>
       <c r="BK8">
         <v>0.0382</v>
@@ -1848,16 +1848,16 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>0.2625066025862069</v>
+        <v>0.262484698275862</v>
       </c>
       <c r="AZ9">
-        <v>0.3590123121665253</v>
+        <v>0.3589992555458396</v>
       </c>
       <c r="BA9">
         <v>-0.123</v>
       </c>
       <c r="BB9">
-        <v>-0.0059425</v>
+        <v>-0.00595</v>
       </c>
       <c r="BC9">
         <v>0.0406</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>0.4484481932471264</v>
+        <v>0.4484278999999999</v>
       </c>
       <c r="BH9">
-        <v>0.6814019035171953</v>
+        <v>0.6813932377913853</v>
       </c>
       <c r="BI9">
         <v>-0.123</v>
@@ -1884,10 +1884,10 @@
         <v>-0.0066125</v>
       </c>
       <c r="BK9">
-        <v>0.03795</v>
+        <v>0.0379</v>
       </c>
       <c r="BL9">
-        <v>0.866</v>
+        <v>0.86525</v>
       </c>
       <c r="BM9">
         <v>3.69</v>
@@ -1925,10 +1925,10 @@
         <v>696</v>
       </c>
       <c r="K10">
-        <v>39.3152298850574</v>
+        <v>39.31494252873556</v>
       </c>
       <c r="L10">
-        <v>0.9531308222605172</v>
+        <v>0.9533466970362083</v>
       </c>
       <c r="M10">
         <v>38.5</v>
@@ -1949,10 +1949,10 @@
         <v>696</v>
       </c>
       <c r="S10">
-        <v>5.192557471264367</v>
+        <v>5.192399425287356</v>
       </c>
       <c r="T10">
-        <v>1.717482701870583</v>
+        <v>1.717552086466752</v>
       </c>
       <c r="U10">
         <v>2.81</v>
@@ -1997,10 +1997,10 @@
         <v>696</v>
       </c>
       <c r="AI10">
-        <v>131.7219827586208</v>
+        <v>131.723275862069</v>
       </c>
       <c r="AJ10">
-        <v>55.55640537267975</v>
+        <v>55.55809847695996</v>
       </c>
       <c r="AK10">
         <v>56.7</v>
@@ -2021,10 +2021,10 @@
         <v>696</v>
       </c>
       <c r="AQ10">
-        <v>1.402294109195401</v>
+        <v>1.402279741379309</v>
       </c>
       <c r="AR10">
-        <v>0.9269581831160579</v>
+        <v>0.9269336155010407</v>
       </c>
       <c r="AS10">
         <v>0.0575</v>
@@ -2045,16 +2045,16 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>0.2393640804597703</v>
+        <v>0.2393403879310347</v>
       </c>
       <c r="AZ10">
-        <v>0.3417082982907653</v>
+        <v>0.341689233157849</v>
       </c>
       <c r="BA10">
         <v>-0.131</v>
       </c>
       <c r="BB10">
-        <v>-0.009650000000000001</v>
+        <v>-0.009652500000000001</v>
       </c>
       <c r="BC10">
         <v>0.03705</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>0.4076326640804597</v>
+        <v>0.4076011656609195</v>
       </c>
       <c r="BH10">
-        <v>0.6480622558927162</v>
+        <v>0.6480328775991542</v>
       </c>
       <c r="BI10">
         <v>-0.131</v>
@@ -2081,10 +2081,10 @@
         <v>-0.0092075</v>
       </c>
       <c r="BK10">
-        <v>0.0339</v>
+        <v>0.03385</v>
       </c>
       <c r="BL10">
-        <v>0.7364999999999999</v>
+        <v>0.73625</v>
       </c>
       <c r="BM10">
         <v>3.69</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.240019615229885</v>
+        <v>0.2399706856321838</v>
       </c>
       <c r="AZ11">
-        <v>0.3472813523236961</v>
+        <v>0.3472084281840537</v>
       </c>
       <c r="BA11">
         <v>-0.14</v>
@@ -2254,7 +2254,7 @@
         <v>-0.014075</v>
       </c>
       <c r="BC11">
-        <v>0.03155</v>
+        <v>0.0315</v>
       </c>
       <c r="BD11">
         <v>0.4485</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.416498432744253</v>
+        <v>0.4164040850000001</v>
       </c>
       <c r="BH11">
-        <v>0.671568884716675</v>
+        <v>0.6714357220165227</v>
       </c>
       <c r="BI11">
         <v>-0.148</v>
@@ -2278,7 +2278,7 @@
         <v>-0.01205</v>
       </c>
       <c r="BK11">
-        <v>0.02915</v>
+        <v>0.0291</v>
       </c>
       <c r="BL11">
         <v>0.7555000000000001</v>
@@ -2319,10 +2319,10 @@
         <v>696</v>
       </c>
       <c r="K12">
-        <v>39.27787356321832</v>
+        <v>39.27859195402291</v>
       </c>
       <c r="L12">
-        <v>0.9278731407286782</v>
+        <v>0.9279442895357107</v>
       </c>
       <c r="M12">
         <v>38.5</v>
@@ -2343,10 +2343,10 @@
         <v>696</v>
       </c>
       <c r="S12">
-        <v>5.155071839080462</v>
+        <v>5.1557183908046</v>
       </c>
       <c r="T12">
-        <v>1.738548057244809</v>
+        <v>1.73850818410316</v>
       </c>
       <c r="U12">
         <v>2.74</v>
@@ -2391,10 +2391,10 @@
         <v>696</v>
       </c>
       <c r="AI12">
-        <v>131.3597701149426</v>
+        <v>131.3619252873564</v>
       </c>
       <c r="AJ12">
-        <v>55.4777727681455</v>
+        <v>55.47688689792401</v>
       </c>
       <c r="AK12">
         <v>56.3</v>
@@ -2415,10 +2415,10 @@
         <v>696</v>
       </c>
       <c r="AQ12">
-        <v>1.398259339080461</v>
+        <v>1.398267959770116</v>
       </c>
       <c r="AR12">
-        <v>0.9261098287645153</v>
+        <v>0.9261022180600198</v>
       </c>
       <c r="AS12">
         <v>0.0574</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.2217807005747129</v>
+        <v>0.2217519899425289</v>
       </c>
       <c r="AZ12">
-        <v>0.3382724177272538</v>
+        <v>0.3382607839182444</v>
       </c>
       <c r="BA12">
         <v>-0.148</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.3779411160919537</v>
+        <v>0.3778935836206894</v>
       </c>
       <c r="BH12">
-        <v>0.6318273288208701</v>
+        <v>0.631767736344507</v>
       </c>
       <c r="BI12">
         <v>-0.169</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.2115549622126437</v>
+        <v>0.2115335997126437</v>
       </c>
       <c r="AZ13">
-        <v>0.3396928675777042</v>
+        <v>0.3396797346469166</v>
       </c>
       <c r="BA13">
         <v>-0.161</v>
@@ -2660,10 +2660,10 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.3619241151149426</v>
+        <v>0.3618349512643679</v>
       </c>
       <c r="BH13">
-        <v>0.629415084218071</v>
+        <v>0.6292162340964271</v>
       </c>
       <c r="BI13">
         <v>-0.204</v>
@@ -2737,10 +2737,10 @@
         <v>696</v>
       </c>
       <c r="S14">
-        <v>5.105143678160928</v>
+        <v>5.10515804597702</v>
       </c>
       <c r="T14">
-        <v>1.764849672866246</v>
+        <v>1.764872499364843</v>
       </c>
       <c r="U14">
         <v>2.64</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>0.2162371997126435</v>
+        <v>0.2162175316091952</v>
       </c>
       <c r="AZ14">
-        <v>0.3423981865498884</v>
+        <v>0.342392856318421</v>
       </c>
       <c r="BA14">
         <v>-0.166</v>
@@ -2857,10 +2857,10 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>0.3728531137931035</v>
+        <v>0.3728175863505748</v>
       </c>
       <c r="BH14">
-        <v>0.6363357225532453</v>
+        <v>0.6363182649436017</v>
       </c>
       <c r="BI14">
         <v>-0.218</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.2414905291666661</v>
+        <v>0.2414724413793096</v>
       </c>
       <c r="AZ15">
-        <v>0.378259896913059</v>
+        <v>0.3782523022488324</v>
       </c>
       <c r="BA15">
         <v>-0.172</v>
@@ -3054,16 +3054,16 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>0.4263376711206896</v>
+        <v>0.4263072510057471</v>
       </c>
       <c r="BH15">
-        <v>0.7055844376584883</v>
+        <v>0.7055387107362162</v>
       </c>
       <c r="BI15">
         <v>-0.238</v>
       </c>
       <c r="BJ15">
-        <v>-0.0191</v>
+        <v>-0.019175</v>
       </c>
       <c r="BK15">
         <v>0.01825</v>
@@ -3155,13 +3155,13 @@
         <v>696</v>
       </c>
       <c r="AA16">
-        <v>38.91738505747127</v>
+        <v>38.91767241379311</v>
       </c>
       <c r="AB16">
-        <v>1.170439037594884</v>
+        <v>1.170041276594866</v>
       </c>
       <c r="AC16">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="AD16">
         <v>38</v>
@@ -3227,10 +3227,10 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>0.2527294410919541</v>
+        <v>0.2526791795977011</v>
       </c>
       <c r="AZ16">
-        <v>0.391545450265747</v>
+        <v>0.3914325473540513</v>
       </c>
       <c r="BA16">
         <v>-0.178</v>
@@ -3245,16 +3245,16 @@
         <v>0.4742499999999999</v>
       </c>
       <c r="BE16">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="BF16">
         <v>696</v>
       </c>
       <c r="BG16">
-        <v>0.452570670977011</v>
+        <v>0.4525346931034478</v>
       </c>
       <c r="BH16">
-        <v>0.7391964376840511</v>
+        <v>0.7391695032634326</v>
       </c>
       <c r="BI16">
         <v>-0.257</v>
@@ -3352,10 +3352,10 @@
         <v>696</v>
       </c>
       <c r="AA17">
-        <v>38.88376436781607</v>
+        <v>38.88390804597699</v>
       </c>
       <c r="AB17">
-        <v>1.176096786354082</v>
+        <v>1.175884647914649</v>
       </c>
       <c r="AC17">
         <v>36.7</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>0.2655507739942529</v>
+        <v>0.2655276806034484</v>
       </c>
       <c r="AZ17">
-        <v>0.405364555342375</v>
+        <v>0.405349935120225</v>
       </c>
       <c r="BA17">
         <v>-0.178</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>0.4827946481321838</v>
+        <v>0.4827012436781609</v>
       </c>
       <c r="BH17">
-        <v>0.8065223664187947</v>
+        <v>0.8064304801720205</v>
       </c>
       <c r="BI17">
         <v>-0.264</v>
@@ -3525,10 +3525,10 @@
         <v>696</v>
       </c>
       <c r="S18">
-        <v>5.029755747126449</v>
+        <v>5.029770114942542</v>
       </c>
       <c r="T18">
-        <v>1.7927585987779</v>
+        <v>1.792777662075799</v>
       </c>
       <c r="U18">
         <v>2.53</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>0.279475885488506</v>
+        <v>0.279465738218391</v>
       </c>
       <c r="AZ18">
-        <v>0.4288560694339046</v>
+        <v>0.4288522132285316</v>
       </c>
       <c r="BA18">
         <v>-0.177</v>
@@ -3645,16 +3645,16 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.5086421926724141</v>
+        <v>0.5086090168103451</v>
       </c>
       <c r="BH18">
-        <v>0.8525566835426698</v>
+        <v>0.8525173083142059</v>
       </c>
       <c r="BI18">
         <v>-0.269</v>
       </c>
       <c r="BJ18">
-        <v>-0.018725</v>
+        <v>-0.01875</v>
       </c>
       <c r="BK18">
         <v>0.01725</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.2291902383620689</v>
+        <v>0.2291679481321838</v>
       </c>
       <c r="AZ19">
-        <v>0.3563342776423347</v>
+        <v>0.3563189697256613</v>
       </c>
       <c r="BA19">
         <v>-0.18</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.4007091886494253</v>
+        <v>0.4006588711206897</v>
       </c>
       <c r="BH19">
-        <v>0.6616940306940561</v>
+        <v>0.6615922149772694</v>
       </c>
       <c r="BI19">
         <v>-0.285</v>
@@ -3895,10 +3895,10 @@
         <v>696</v>
       </c>
       <c r="K20">
-        <v>39.13706896551732</v>
+        <v>39.13750000000008</v>
       </c>
       <c r="L20">
-        <v>0.8508680465542127</v>
+        <v>0.8511112076396284</v>
       </c>
       <c r="M20">
         <v>38.4</v>
@@ -3919,10 +3919,10 @@
         <v>696</v>
       </c>
       <c r="S20">
-        <v>5.015603448275863</v>
+        <v>5.016135057471265</v>
       </c>
       <c r="T20">
-        <v>1.815760160116756</v>
+        <v>1.81567321216895</v>
       </c>
       <c r="U20">
         <v>2.47</v>
@@ -3931,7 +3931,7 @@
         <v>3.31</v>
       </c>
       <c r="W20">
-        <v>4.745</v>
+        <v>4.75</v>
       </c>
       <c r="X20">
         <v>6.35</v>
@@ -3967,10 +3967,10 @@
         <v>696</v>
       </c>
       <c r="AI20">
-        <v>129.7754310344828</v>
+        <v>129.776867816092</v>
       </c>
       <c r="AJ20">
-        <v>55.50864486267168</v>
+        <v>55.51177407770752</v>
       </c>
       <c r="AK20">
         <v>54.7</v>
@@ -3991,10 +3991,10 @@
         <v>696</v>
       </c>
       <c r="AQ20">
-        <v>1.383838362068966</v>
+        <v>1.383869971264368</v>
       </c>
       <c r="AR20">
-        <v>0.9239422349237401</v>
+        <v>0.9240337948773275</v>
       </c>
       <c r="AS20">
         <v>0.0568</v>
@@ -4009,16 +4009,16 @@
         <v>1.89</v>
       </c>
       <c r="AW20">
-        <v>5.43</v>
+        <v>5.44</v>
       </c>
       <c r="AX20">
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.2018816464080458</v>
+        <v>0.2018542841954021</v>
       </c>
       <c r="AZ20">
-        <v>0.3402691009296484</v>
+        <v>0.3402677271486558</v>
       </c>
       <c r="BA20">
         <v>-0.187</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.3448189505747127</v>
+        <v>0.3447723873563219</v>
       </c>
       <c r="BH20">
-        <v>0.6192687066242668</v>
+        <v>0.6192385911491369</v>
       </c>
       <c r="BI20">
         <v>-0.296</v>
@@ -4116,10 +4116,10 @@
         <v>696</v>
       </c>
       <c r="S21">
-        <v>5.003477011494257</v>
+        <v>5.003491379310349</v>
       </c>
       <c r="T21">
-        <v>1.820722516729006</v>
+        <v>1.820741415886039</v>
       </c>
       <c r="U21">
         <v>2.45</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.2097531428160919</v>
+        <v>0.2097262897988504</v>
       </c>
       <c r="AZ21">
-        <v>0.3404458329542909</v>
+        <v>0.3404293102818422</v>
       </c>
       <c r="BA21">
         <v>-0.192</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.3624793170977009</v>
+        <v>0.3624519691666664</v>
       </c>
       <c r="BH21">
-        <v>0.6211951543888585</v>
+        <v>0.6211873396113059</v>
       </c>
       <c r="BI21">
         <v>-0.303</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.2331876928160921</v>
+        <v>0.2331592623563219</v>
       </c>
       <c r="AZ22">
-        <v>0.3681020968817964</v>
+        <v>0.3680431648541297</v>
       </c>
       <c r="BA22">
         <v>-0.192</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.4108995964080459</v>
+        <v>0.4108794389367815</v>
       </c>
       <c r="BH22">
-        <v>0.6782795675022222</v>
+        <v>0.6782733382269992</v>
       </c>
       <c r="BI22">
         <v>-0.302</v>
@@ -4510,10 +4510,10 @@
         <v>696</v>
       </c>
       <c r="S23">
-        <v>4.979784482758623</v>
+        <v>4.979798850574714</v>
       </c>
       <c r="T23">
-        <v>1.821893736752466</v>
+        <v>1.821889355254607</v>
       </c>
       <c r="U23">
         <v>2.43</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.2633143850574712</v>
+        <v>0.263298903735632</v>
       </c>
       <c r="AZ23">
-        <v>0.4160767082016735</v>
+        <v>0.4160681819428895</v>
       </c>
       <c r="BA23">
         <v>-0.195</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.4767394856321838</v>
+        <v>0.4766775057471264</v>
       </c>
       <c r="BH23">
-        <v>0.7988941545540262</v>
+        <v>0.7988152970551387</v>
       </c>
       <c r="BI23">
         <v>-0.308</v>
@@ -4707,10 +4707,10 @@
         <v>696</v>
       </c>
       <c r="S24">
-        <v>4.960962643678157</v>
+        <v>4.961077586206892</v>
       </c>
       <c r="T24">
-        <v>1.831379735023378</v>
+        <v>1.83138784179246</v>
       </c>
       <c r="U24">
         <v>2.39</v>
@@ -4731,10 +4731,10 @@
         <v>696</v>
       </c>
       <c r="AA24">
-        <v>38.81020114942525</v>
+        <v>38.81048850574709</v>
       </c>
       <c r="AB24">
-        <v>1.131369305860507</v>
+        <v>1.130997798411463</v>
       </c>
       <c r="AC24">
         <v>36.9</v>
@@ -4755,10 +4755,10 @@
         <v>696</v>
       </c>
       <c r="AI24">
-        <v>129.2116379310344</v>
+        <v>129.2130747126436</v>
       </c>
       <c r="AJ24">
-        <v>55.39470425994833</v>
+        <v>55.3954909603118</v>
       </c>
       <c r="AK24">
         <v>54.3</v>
@@ -4779,10 +4779,10 @@
         <v>696</v>
       </c>
       <c r="AQ24">
-        <v>1.377808477011495</v>
+        <v>1.377809913793104</v>
       </c>
       <c r="AR24">
-        <v>0.9212984941425509</v>
+        <v>0.9212973504492146</v>
       </c>
       <c r="AS24">
         <v>0.0565</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.2594744827586206</v>
+        <v>0.2594606761494253</v>
       </c>
       <c r="AZ24">
-        <v>0.4040339080504657</v>
+        <v>0.4040299075131008</v>
       </c>
       <c r="BA24">
         <v>-0.21</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.4734584741379308</v>
+        <v>0.4734175445402298</v>
       </c>
       <c r="BH24">
-        <v>0.793807391256696</v>
+        <v>0.7937407122684869</v>
       </c>
       <c r="BI24">
         <v>-0.331</v>
@@ -4928,10 +4928,10 @@
         <v>696</v>
       </c>
       <c r="AA25">
-        <v>38.78678160919544</v>
+        <v>38.78692528735636</v>
       </c>
       <c r="AB25">
-        <v>1.144947229976597</v>
+        <v>1.144842058231129</v>
       </c>
       <c r="AC25">
         <v>36.4</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.2677882902298851</v>
+        <v>0.2677674425287357</v>
       </c>
       <c r="AZ25">
-        <v>0.4356135472007489</v>
+        <v>0.4356029415774123</v>
       </c>
       <c r="BA25">
         <v>-0.217</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.4940038060344827</v>
+        <v>0.4939798663793102</v>
       </c>
       <c r="BH25">
-        <v>0.8626161413908047</v>
+        <v>0.8626024119043514</v>
       </c>
       <c r="BI25">
         <v>-0.342</v>
@@ -5101,10 +5101,10 @@
         <v>696</v>
       </c>
       <c r="S26">
-        <v>4.933534482758624</v>
+        <v>4.933563218390807</v>
       </c>
       <c r="T26">
-        <v>1.847050421412714</v>
+        <v>1.84707280113382</v>
       </c>
       <c r="U26">
         <v>2.34</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.242596296408046</v>
+        <v>0.2425781037356321</v>
       </c>
       <c r="AZ26">
-        <v>0.4012231370985103</v>
+        <v>0.4012111866609152</v>
       </c>
       <c r="BA26">
         <v>-0.225</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.4560720114942528</v>
+        <v>0.456057522988506</v>
       </c>
       <c r="BH26">
-        <v>0.8092979145486555</v>
+        <v>0.8092950816426202</v>
       </c>
       <c r="BI26">
         <v>-0.354</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.209466825</v>
+        <v>0.2094457041666667</v>
       </c>
       <c r="AZ27">
-        <v>0.3389501034451602</v>
+        <v>0.3389281500632681</v>
       </c>
       <c r="BA27">
         <v>-0.232</v>
@@ -5409,7 +5409,7 @@
         <v>0.0161</v>
       </c>
       <c r="BD27">
-        <v>0.43125</v>
+        <v>0.431</v>
       </c>
       <c r="BE27">
         <v>1.47</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.3802782287356323</v>
+        <v>0.3802457456896552</v>
       </c>
       <c r="BH27">
-        <v>0.6337305974793885</v>
+        <v>0.6337150575305127</v>
       </c>
       <c r="BI27">
         <v>-0.365</v>
@@ -5519,10 +5519,10 @@
         <v>696</v>
       </c>
       <c r="AA28">
-        <v>38.80589080459767</v>
+        <v>38.8060344827586</v>
       </c>
       <c r="AB28">
-        <v>1.071827490482575</v>
+        <v>1.071672299835023</v>
       </c>
       <c r="AC28">
         <v>36.8</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.2217353372126438</v>
+        <v>0.2217136849137933</v>
       </c>
       <c r="AZ28">
-        <v>0.3580569060690236</v>
+        <v>0.3580397424435315</v>
       </c>
       <c r="BA28">
         <v>-0.23</v>
@@ -5603,7 +5603,7 @@
         <v>-0.032</v>
       </c>
       <c r="BC28">
-        <v>0.0179</v>
+        <v>0.01785</v>
       </c>
       <c r="BD28">
         <v>0.421</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.3952932945402302</v>
+        <v>0.3952301853448277</v>
       </c>
       <c r="BH28">
-        <v>0.6555369877170429</v>
+        <v>0.6554606850304158</v>
       </c>
       <c r="BI28">
         <v>-0.362</v>
@@ -5668,10 +5668,10 @@
         <v>696</v>
       </c>
       <c r="K29">
-        <v>39.03002873563243</v>
+        <v>39.03017241379334</v>
       </c>
       <c r="L29">
-        <v>0.8077523655583825</v>
+        <v>0.8076490256590313</v>
       </c>
       <c r="M29">
         <v>38.4</v>
@@ -5692,10 +5692,10 @@
         <v>696</v>
       </c>
       <c r="S29">
-        <v>4.909037356321832</v>
+        <v>4.909468390804591</v>
       </c>
       <c r="T29">
-        <v>1.85707097257042</v>
+        <v>1.857109188262478</v>
       </c>
       <c r="U29">
         <v>2.3</v>
@@ -5707,7 +5707,7 @@
         <v>4.625</v>
       </c>
       <c r="X29">
-        <v>6.2825</v>
+        <v>6.29</v>
       </c>
       <c r="Y29">
         <v>8.84</v>
@@ -5740,10 +5740,10 @@
         <v>696</v>
       </c>
       <c r="AI29">
-        <v>128.7965517241379</v>
+        <v>128.7982758620689</v>
       </c>
       <c r="AJ29">
-        <v>55.47198932437053</v>
+        <v>55.47138893004959</v>
       </c>
       <c r="AK29">
         <v>53.8</v>
@@ -5764,10 +5764,10 @@
         <v>696</v>
       </c>
       <c r="AQ29">
-        <v>1.373693965517239</v>
+        <v>1.37371120689655</v>
       </c>
       <c r="AR29">
-        <v>0.9212162059123121</v>
+        <v>0.9212216140878989</v>
       </c>
       <c r="AS29">
         <v>0.0564</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.230977852873563</v>
+        <v>0.2309728635057469</v>
       </c>
       <c r="AZ29">
-        <v>0.3653690925282487</v>
+        <v>0.3653681845112119</v>
       </c>
       <c r="BA29">
         <v>-0.225</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.4102317484195401</v>
+        <v>0.4101956050287356</v>
       </c>
       <c r="BH29">
-        <v>0.6713062479888291</v>
+        <v>0.6712448093615132</v>
       </c>
       <c r="BI29">
         <v>-0.353</v>
@@ -5865,10 +5865,10 @@
         <v>696</v>
       </c>
       <c r="K30">
-        <v>39.08117816091973</v>
+        <v>39.07686781609214</v>
       </c>
       <c r="L30">
-        <v>0.8392386356915873</v>
+        <v>0.8383587699228736</v>
       </c>
       <c r="M30">
         <v>38.4</v>
@@ -5877,7 +5877,7 @@
         <v>38.4</v>
       </c>
       <c r="O30">
-        <v>38.65000000000001</v>
+        <v>38.6</v>
       </c>
       <c r="P30">
         <v>39.4</v>
@@ -5889,34 +5889,34 @@
         <v>696</v>
       </c>
       <c r="S30">
-        <v>4.960215517241375</v>
+        <v>4.956077586206893</v>
       </c>
       <c r="T30">
-        <v>1.830652306461976</v>
+        <v>1.830747455879464</v>
       </c>
       <c r="U30">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V30">
-        <v>3.2375</v>
+        <v>3.2225</v>
       </c>
       <c r="W30">
         <v>4.68</v>
       </c>
       <c r="X30">
-        <v>6.325</v>
+        <v>6.3125</v>
       </c>
       <c r="Y30">
-        <v>8.890000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="Z30">
         <v>696</v>
       </c>
       <c r="AA30">
-        <v>38.82614942528731</v>
+        <v>38.82629310344823</v>
       </c>
       <c r="AB30">
-        <v>1.098661108293802</v>
+        <v>1.098572544181797</v>
       </c>
       <c r="AC30">
         <v>36.8</v>
@@ -5937,10 +5937,10 @@
         <v>696</v>
       </c>
       <c r="AI30">
-        <v>129.166091954023</v>
+        <v>129.1522988505747</v>
       </c>
       <c r="AJ30">
-        <v>55.45395912288898</v>
+        <v>55.43985419855104</v>
       </c>
       <c r="AK30">
         <v>54.1</v>
@@ -5961,13 +5961,13 @@
         <v>696</v>
       </c>
       <c r="AQ30">
-        <v>1.377472988505749</v>
+        <v>1.377376436781611</v>
       </c>
       <c r="AR30">
-        <v>0.9217004978617179</v>
+        <v>0.9216643589462978</v>
       </c>
       <c r="AS30">
-        <v>0.0565</v>
+        <v>0.0564</v>
       </c>
       <c r="AT30">
         <v>0.643</v>
@@ -5985,19 +5985,19 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.2486309389367815</v>
+        <v>0.2485975238505746</v>
       </c>
       <c r="AZ30">
-        <v>0.361206007121526</v>
+        <v>0.3611764066973644</v>
       </c>
       <c r="BA30">
         <v>-0.18</v>
       </c>
       <c r="BB30">
-        <v>-0.007065</v>
+        <v>-0.00706</v>
       </c>
       <c r="BC30">
-        <v>0.0334</v>
+        <v>0.03335</v>
       </c>
       <c r="BD30">
         <v>0.43925</v>
@@ -6009,19 +6009,19 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.4298176903735637</v>
+        <v>0.4297437277298855</v>
       </c>
       <c r="BH30">
-        <v>0.6725434811901377</v>
+        <v>0.6724549222014167</v>
       </c>
       <c r="BI30">
         <v>-0.283</v>
       </c>
       <c r="BJ30">
-        <v>-0.0065875</v>
+        <v>-0.006574999999999999</v>
       </c>
       <c r="BK30">
-        <v>0.0273</v>
+        <v>0.02725</v>
       </c>
       <c r="BL30">
         <v>0.8242499999999999</v>
@@ -6086,10 +6086,10 @@
         <v>696</v>
       </c>
       <c r="S31">
-        <v>4.993807471264369</v>
+        <v>4.993994252873565</v>
       </c>
       <c r="T31">
-        <v>1.812503420071652</v>
+        <v>1.812444946711214</v>
       </c>
       <c r="U31">
         <v>2.46</v>
@@ -6110,10 +6110,10 @@
         <v>696</v>
       </c>
       <c r="AA31">
-        <v>38.85603448275859</v>
+        <v>38.85617816091951</v>
       </c>
       <c r="AB31">
-        <v>1.115975977135279</v>
+        <v>1.115794670461499</v>
       </c>
       <c r="AC31">
         <v>36.8</v>
@@ -6158,10 +6158,10 @@
         <v>696</v>
       </c>
       <c r="AQ31">
-        <v>1.381286781609194</v>
+        <v>1.381315517241378</v>
       </c>
       <c r="AR31">
-        <v>0.9232278579503149</v>
+        <v>0.923260545276307</v>
       </c>
       <c r="AS31">
         <v>0.0566</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.2533247462643676</v>
+        <v>0.2533064317528733</v>
       </c>
       <c r="AZ31">
-        <v>0.359734283736489</v>
+        <v>0.359723063308832</v>
       </c>
       <c r="BA31">
         <v>-0.157</v>
@@ -6206,16 +6206,16 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.4355994037212645</v>
+        <v>0.4355923925287357</v>
       </c>
       <c r="BH31">
-        <v>0.6728944697969196</v>
+        <v>0.6728933376683516</v>
       </c>
       <c r="BI31">
         <v>-0.247</v>
       </c>
       <c r="BJ31">
-        <v>-0.004645</v>
+        <v>-0.004647500000000001</v>
       </c>
       <c r="BK31">
         <v>0.0296</v>
@@ -6259,10 +6259,10 @@
         <v>696</v>
       </c>
       <c r="K32">
-        <v>39.15991379310355</v>
+        <v>39.16034482758631</v>
       </c>
       <c r="L32">
-        <v>0.8839346266621499</v>
+        <v>0.8843528034234133</v>
       </c>
       <c r="M32">
         <v>38.4</v>
@@ -6283,13 +6283,13 @@
         <v>696</v>
       </c>
       <c r="S32">
-        <v>5.040014367816099</v>
+        <v>5.040330459770122</v>
       </c>
       <c r="T32">
-        <v>1.78384666399794</v>
+        <v>1.783821547997346</v>
       </c>
       <c r="U32">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="V32">
         <v>3.3725</v>
@@ -6331,10 +6331,10 @@
         <v>696</v>
       </c>
       <c r="AI32">
-        <v>129.9528735632184</v>
+        <v>129.9545977011494</v>
       </c>
       <c r="AJ32">
-        <v>55.38888097457507</v>
+        <v>55.38961211192819</v>
       </c>
       <c r="AK32">
         <v>55.1</v>
@@ -6355,10 +6355,10 @@
         <v>696</v>
       </c>
       <c r="AQ32">
-        <v>1.385282614942529</v>
+        <v>1.385301293103448</v>
       </c>
       <c r="AR32">
-        <v>0.9232266154377924</v>
+        <v>0.9232237036943289</v>
       </c>
       <c r="AS32">
         <v>0.0568</v>
@@ -6379,16 +6379,16 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.2694550722126436</v>
+        <v>0.269491584367816</v>
       </c>
       <c r="AZ32">
-        <v>0.3652083207096645</v>
+        <v>0.3652402812881718</v>
       </c>
       <c r="BA32">
         <v>-0.12</v>
       </c>
       <c r="BB32">
-        <v>0.003885</v>
+        <v>0.0038775</v>
       </c>
       <c r="BC32">
         <v>0.0529</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.456664364238506</v>
+        <v>0.4568173842068969</v>
       </c>
       <c r="BH32">
-        <v>0.6870679924534888</v>
+        <v>0.6872633174203029</v>
       </c>
       <c r="BI32">
         <v>-0.185</v>
@@ -6456,10 +6456,10 @@
         <v>696</v>
       </c>
       <c r="K33">
-        <v>39.16508620689665</v>
+        <v>39.16594827586217</v>
       </c>
       <c r="L33">
-        <v>0.8809425910198619</v>
+        <v>0.881417248337071</v>
       </c>
       <c r="M33">
         <v>38.4</v>
@@ -6480,10 +6480,10 @@
         <v>696</v>
       </c>
       <c r="S33">
-        <v>5.044353448275865</v>
+        <v>5.045186781609199</v>
       </c>
       <c r="T33">
-        <v>1.785245165458754</v>
+        <v>1.785270902490225</v>
       </c>
       <c r="U33">
         <v>2.56</v>
@@ -6495,7 +6495,7 @@
         <v>4.795</v>
       </c>
       <c r="X33">
-        <v>6.3425</v>
+        <v>6.35</v>
       </c>
       <c r="Y33">
         <v>8.890000000000001</v>
@@ -6528,10 +6528,10 @@
         <v>696</v>
       </c>
       <c r="AI33">
-        <v>130.0653735632184</v>
+        <v>130.0669540229885</v>
       </c>
       <c r="AJ33">
-        <v>55.42254320840559</v>
+        <v>55.42230883375455</v>
       </c>
       <c r="AK33">
         <v>55.3</v>
@@ -6552,16 +6552,16 @@
         <v>696</v>
       </c>
       <c r="AQ33">
-        <v>1.386490086206897</v>
+        <v>1.386526005747127</v>
       </c>
       <c r="AR33">
-        <v>0.9238362089573626</v>
+        <v>0.9238478132942041</v>
       </c>
       <c r="AS33">
         <v>0.0569</v>
       </c>
       <c r="AT33">
-        <v>0.6507500000000001</v>
+        <v>0.651</v>
       </c>
       <c r="AU33">
         <v>1.295</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.2574919137931037</v>
+        <v>0.2574758204022992</v>
       </c>
       <c r="AZ33">
-        <v>0.362272967093144</v>
+        <v>0.3622644126319386</v>
       </c>
       <c r="BA33">
         <v>-0.131</v>
@@ -6591,7 +6591,7 @@
         <v>0.0343</v>
       </c>
       <c r="BD33">
-        <v>0.4555</v>
+        <v>0.45525</v>
       </c>
       <c r="BE33">
         <v>1.66</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.4425824841954024</v>
+        <v>0.4425500816091953</v>
       </c>
       <c r="BH33">
-        <v>0.6764745636496839</v>
+        <v>0.6764184236297492</v>
       </c>
       <c r="BI33">
         <v>-0.207</v>
@@ -6653,10 +6653,10 @@
         <v>696</v>
       </c>
       <c r="K34">
-        <v>39.15301724137938</v>
+        <v>39.15215517241387</v>
       </c>
       <c r="L34">
-        <v>0.8659453716907723</v>
+        <v>0.8658482489878728</v>
       </c>
       <c r="M34">
         <v>38.4</v>
@@ -6677,10 +6677,10 @@
         <v>696</v>
       </c>
       <c r="S34">
-        <v>5.030344827586209</v>
+        <v>5.029324712643679</v>
       </c>
       <c r="T34">
-        <v>1.800804103863382</v>
+        <v>1.800921339988856</v>
       </c>
       <c r="U34">
         <v>2.51</v>
@@ -6695,7 +6695,7 @@
         <v>6.35</v>
       </c>
       <c r="Y34">
-        <v>8.9</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="Z34">
         <v>696</v>
@@ -6725,10 +6725,10 @@
         <v>696</v>
       </c>
       <c r="AI34">
-        <v>129.9629310344828</v>
+        <v>129.9603448275862</v>
       </c>
       <c r="AJ34">
-        <v>55.51174719959798</v>
+        <v>55.5114227083394</v>
       </c>
       <c r="AK34">
         <v>55</v>
@@ -6749,10 +6749,10 @@
         <v>696</v>
       </c>
       <c r="AQ34">
-        <v>1.385819109195404</v>
+        <v>1.385767385057473</v>
       </c>
       <c r="AR34">
-        <v>0.9248299181108248</v>
+        <v>0.924805730662991</v>
       </c>
       <c r="AS34">
         <v>0.0569</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.2148882829022988</v>
+        <v>0.2148802074712643</v>
       </c>
       <c r="AZ34">
-        <v>0.3183929785383427</v>
+        <v>0.3183863855668695</v>
       </c>
       <c r="BA34">
         <v>-0.155</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.3640089699712646</v>
+        <v>0.3640026314655174</v>
       </c>
       <c r="BH34">
-        <v>0.5786990542323479</v>
+        <v>0.5787361585620345</v>
       </c>
       <c r="BI34">
         <v>-0.245</v>
@@ -6874,16 +6874,16 @@
         <v>696</v>
       </c>
       <c r="S35">
-        <v>5.00313218390805</v>
+        <v>5.003074712643683</v>
       </c>
       <c r="T35">
-        <v>1.819783516194064</v>
+        <v>1.819780056326257</v>
       </c>
       <c r="U35">
         <v>2.45</v>
       </c>
       <c r="V35">
-        <v>3.295</v>
+        <v>3.2925</v>
       </c>
       <c r="W35">
         <v>4.73</v>
@@ -6922,10 +6922,10 @@
         <v>696</v>
       </c>
       <c r="AI35">
-        <v>129.7663793103448</v>
+        <v>129.766091954023</v>
       </c>
       <c r="AJ35">
-        <v>55.56297215967728</v>
+        <v>55.56319857280038</v>
       </c>
       <c r="AK35">
         <v>54.6</v>
@@ -6946,10 +6946,10 @@
         <v>696</v>
       </c>
       <c r="AQ35">
-        <v>1.383786206896552</v>
+        <v>1.38377183908046</v>
       </c>
       <c r="AR35">
-        <v>0.924301894332707</v>
+        <v>0.9242825722027677</v>
       </c>
       <c r="AS35">
         <v>0.0568</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.1888462902298852</v>
+        <v>0.1888329410919542</v>
       </c>
       <c r="AZ35">
-        <v>0.3148551531011021</v>
+        <v>0.3148507503257835</v>
       </c>
       <c r="BA35">
         <v>-0.182</v>
@@ -6982,7 +6982,7 @@
         <v>-0.024725</v>
       </c>
       <c r="BC35">
-        <v>0.0224</v>
+        <v>0.02235</v>
       </c>
       <c r="BD35">
         <v>0.3445</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.3156818596264366</v>
+        <v>0.3156503761494251</v>
       </c>
       <c r="BH35">
-        <v>0.5580881482561808</v>
+        <v>0.5580587542575434</v>
       </c>
       <c r="BI35">
         <v>-0.287</v>
@@ -7047,10 +7047,10 @@
         <v>696</v>
       </c>
       <c r="K36">
-        <v>39.15244252873572</v>
+        <v>39.15186781609204</v>
       </c>
       <c r="L36">
-        <v>0.8646834557840767</v>
+        <v>0.8645184727329567</v>
       </c>
       <c r="M36">
         <v>38.4</v>
@@ -7071,10 +7071,10 @@
         <v>696</v>
       </c>
       <c r="S36">
-        <v>5.029597701149433</v>
+        <v>5.029181034482765</v>
       </c>
       <c r="T36">
-        <v>1.802180488791774</v>
+        <v>1.802094877367859</v>
       </c>
       <c r="U36">
         <v>2.51</v>
@@ -7119,10 +7119,10 @@
         <v>696</v>
       </c>
       <c r="AI36">
-        <v>129.8831896551724</v>
+        <v>129.8830459770115</v>
       </c>
       <c r="AJ36">
-        <v>55.53382316720911</v>
+        <v>55.53394139982621</v>
       </c>
       <c r="AK36">
         <v>54.9</v>
@@ -7143,10 +7143,10 @@
         <v>696</v>
       </c>
       <c r="AQ36">
-        <v>1.384951005747127</v>
+        <v>1.384917959770116</v>
       </c>
       <c r="AR36">
-        <v>0.9245069634183718</v>
+        <v>0.9245102037057893</v>
       </c>
       <c r="AS36">
         <v>0.0568</v>
@@ -7167,16 +7167,16 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.215524120402299</v>
+        <v>0.2155082571839081</v>
       </c>
       <c r="AZ36">
-        <v>0.3140174360237008</v>
+        <v>0.3139874758008795</v>
       </c>
       <c r="BA36">
         <v>-0.148</v>
       </c>
       <c r="BB36">
-        <v>-0.006037499999999999</v>
+        <v>-0.006045</v>
       </c>
       <c r="BC36">
         <v>0.0326</v>
@@ -7191,10 +7191,10 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.360519514655172</v>
+        <v>0.3604948992816088</v>
       </c>
       <c r="BH36">
-        <v>0.5812823073507507</v>
+        <v>0.5812637960690393</v>
       </c>
       <c r="BI36">
         <v>-0.233</v>
@@ -7244,10 +7244,10 @@
         <v>696</v>
       </c>
       <c r="K37">
-        <v>39.29999999999991</v>
+        <v>39.30129310344818</v>
       </c>
       <c r="L37">
-        <v>0.9531771937000668</v>
+        <v>0.9517789751638154</v>
       </c>
       <c r="M37">
         <v>38.4</v>
@@ -7268,22 +7268,22 @@
         <v>696</v>
       </c>
       <c r="S37">
-        <v>5.177413793103442</v>
+        <v>5.178591954022985</v>
       </c>
       <c r="T37">
-        <v>1.722919199526561</v>
+        <v>1.722852419854074</v>
       </c>
       <c r="U37">
         <v>2.71</v>
       </c>
       <c r="V37">
-        <v>3.58</v>
+        <v>3.5875</v>
       </c>
       <c r="W37">
-        <v>4.9</v>
+        <v>4.91</v>
       </c>
       <c r="X37">
-        <v>6.4125</v>
+        <v>6.42</v>
       </c>
       <c r="Y37">
         <v>8.98</v>
@@ -7316,10 +7316,10 @@
         <v>696</v>
       </c>
       <c r="AI37">
-        <v>131.4231321839081</v>
+        <v>131.4307471264369</v>
       </c>
       <c r="AJ37">
-        <v>55.56090154667139</v>
+        <v>55.56671461116277</v>
       </c>
       <c r="AK37">
         <v>55.9</v>
@@ -7340,10 +7340,10 @@
         <v>696</v>
       </c>
       <c r="AQ37">
-        <v>1.399210344827585</v>
+        <v>1.399201867816091</v>
       </c>
       <c r="AR37">
-        <v>0.926498445852022</v>
+        <v>0.9264867500227566</v>
       </c>
       <c r="AS37">
         <v>0.057</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.2447830790086205</v>
+        <v>0.2447211104597699</v>
       </c>
       <c r="AZ37">
-        <v>0.2915208195062727</v>
+        <v>0.2914723972402947</v>
       </c>
       <c r="BA37">
         <v>-0.0847</v>
@@ -7379,7 +7379,7 @@
         <v>0.115</v>
       </c>
       <c r="BD37">
-        <v>0.37225</v>
+        <v>0.3715</v>
       </c>
       <c r="BE37">
         <v>1.44</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.3758363671408042</v>
+        <v>0.3757463928160915</v>
       </c>
       <c r="BH37">
-        <v>0.5477499008718271</v>
+        <v>0.547693791273089</v>
       </c>
       <c r="BI37">
         <v>-0.0839</v>
@@ -7441,10 +7441,10 @@
         <v>696</v>
       </c>
       <c r="K38">
-        <v>39.56465517241377</v>
+        <v>39.56637931034482</v>
       </c>
       <c r="L38">
-        <v>1.091372653776911</v>
+        <v>1.09149312020563</v>
       </c>
       <c r="M38">
         <v>38.5</v>
@@ -7465,34 +7465,34 @@
         <v>696</v>
       </c>
       <c r="S38">
-        <v>5.44262931034483</v>
+        <v>5.443793103448282</v>
       </c>
       <c r="T38">
-        <v>1.593497347410537</v>
+        <v>1.59339472283039</v>
       </c>
       <c r="U38">
         <v>3.05</v>
       </c>
       <c r="V38">
-        <v>4.055</v>
+        <v>4.05</v>
       </c>
       <c r="W38">
         <v>5.19</v>
       </c>
       <c r="X38">
-        <v>6.545</v>
+        <v>6.54</v>
       </c>
       <c r="Y38">
-        <v>9.07</v>
+        <v>9.06</v>
       </c>
       <c r="Z38">
         <v>696</v>
       </c>
       <c r="AA38">
-        <v>39.28290229885054</v>
+        <v>39.28304597701145</v>
       </c>
       <c r="AB38">
-        <v>1.240518885027478</v>
+        <v>1.240387467038694</v>
       </c>
       <c r="AC38">
         <v>37.1</v>
@@ -7513,10 +7513,10 @@
         <v>696</v>
       </c>
       <c r="AI38">
-        <v>134.1991379310345</v>
+        <v>134.2010057471265</v>
       </c>
       <c r="AJ38">
-        <v>55.82035212613751</v>
+        <v>55.81378016709649</v>
       </c>
       <c r="AK38">
         <v>58.3</v>
@@ -7537,10 +7537,10 @@
         <v>696</v>
       </c>
       <c r="AQ38">
-        <v>1.425034195402299</v>
+        <v>1.425150574712644</v>
       </c>
       <c r="AR38">
-        <v>0.9309087418635148</v>
+        <v>0.9309684387387827</v>
       </c>
       <c r="AS38">
         <v>0.0578</v>
@@ -7561,13 +7561,13 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.2880782471264367</v>
+        <v>0.2880273563218388</v>
       </c>
       <c r="AZ38">
-        <v>0.277527222265683</v>
+        <v>0.2774548546753669</v>
       </c>
       <c r="BA38">
-        <v>0.00468</v>
+        <v>0.00469</v>
       </c>
       <c r="BB38">
         <v>0.11175</v>
@@ -7576,7 +7576,7 @@
         <v>0.172</v>
       </c>
       <c r="BD38">
-        <v>0.3695</v>
+        <v>0.36925</v>
       </c>
       <c r="BE38">
         <v>1.47</v>
@@ -7585,13 +7585,13 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.4167538218390803</v>
+        <v>0.4166884482758619</v>
       </c>
       <c r="BH38">
-        <v>0.5411417058599867</v>
+        <v>0.5410045777930017</v>
       </c>
       <c r="BI38">
-        <v>0.0056</v>
+        <v>0.00561</v>
       </c>
       <c r="BJ38">
         <v>0.08435000000000001</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.2118703062931034</v>
+        <v>0.2118222586350575</v>
       </c>
       <c r="AZ39">
-        <v>0.3000765476224538</v>
+        <v>0.3000529070000432</v>
       </c>
       <c r="BA39">
         <v>-0.0955</v>
@@ -7782,19 +7782,19 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.3394848301293101</v>
+        <v>0.3394288118247125</v>
       </c>
       <c r="BH39">
-        <v>0.5549012083895114</v>
+        <v>0.5548957890497397</v>
       </c>
       <c r="BI39">
         <v>-0.0573</v>
       </c>
       <c r="BJ39">
-        <v>0.004750000000000001</v>
+        <v>0.0047425</v>
       </c>
       <c r="BK39">
-        <v>0.06025</v>
+        <v>0.06015</v>
       </c>
       <c r="BL39">
         <v>0.4455</v>
@@ -7883,10 +7883,10 @@
         <v>696</v>
       </c>
       <c r="AA40">
-        <v>39.15531609195406</v>
+        <v>39.15545977011497</v>
       </c>
       <c r="AB40">
-        <v>1.166671666596887</v>
+        <v>1.166584668297715</v>
       </c>
       <c r="AC40">
         <v>37</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.1913149870689654</v>
+        <v>0.191290929597701</v>
       </c>
       <c r="AZ40">
-        <v>0.3085739001856486</v>
+        <v>0.3085610273116992</v>
       </c>
       <c r="BA40">
         <v>-0.117</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.323714311206897</v>
+        <v>0.3236534689655178</v>
       </c>
       <c r="BH40">
-        <v>0.560580601257594</v>
+        <v>0.5605300286693026</v>
       </c>
       <c r="BI40">
         <v>-0.168</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.1955356169540229</v>
+        <v>0.1954971063362068</v>
       </c>
       <c r="AZ41">
-        <v>0.3146824800874782</v>
+        <v>0.3146255856586029</v>
       </c>
       <c r="BA41">
         <v>-0.143</v>
@@ -8167,7 +8167,7 @@
         <v>0.0147</v>
       </c>
       <c r="BD41">
-        <v>0.3785</v>
+        <v>0.37775</v>
       </c>
       <c r="BE41">
         <v>1.45</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.3367706056752873</v>
+        <v>0.3367132390660919</v>
       </c>
       <c r="BH41">
-        <v>0.573375529859152</v>
+        <v>0.573303197843491</v>
       </c>
       <c r="BI41">
         <v>-0.196</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.2193236063218391</v>
+        <v>0.2193082729885057</v>
       </c>
       <c r="AZ42">
-        <v>0.3475880469947026</v>
+        <v>0.3475778257872806</v>
       </c>
       <c r="BA42">
         <v>-0.164</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.3926555459770112</v>
+        <v>0.3926057112068964</v>
       </c>
       <c r="BH42">
-        <v>0.6671712667180888</v>
+        <v>0.6671402503033709</v>
       </c>
       <c r="BI42">
         <v>-0.239</v>
@@ -8522,10 +8522,10 @@
         <v>696</v>
       </c>
       <c r="AQ43">
-        <v>1.38780316091954</v>
+        <v>1.387804597701149</v>
       </c>
       <c r="AR43">
-        <v>0.9238522233296541</v>
+        <v>0.9238510656741039</v>
       </c>
       <c r="AS43">
         <v>0.0569</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.2334197787356322</v>
+        <v>0.2334081896551725</v>
       </c>
       <c r="AZ43">
-        <v>0.3686921625420816</v>
+        <v>0.3686835400249449</v>
       </c>
       <c r="BA43">
         <v>-0.176</v>
@@ -8558,7 +8558,7 @@
         <v>-0.042425</v>
       </c>
       <c r="BC43">
-        <v>0.010145</v>
+        <v>0.01014</v>
       </c>
       <c r="BD43">
         <v>0.49325</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.4226155316091957</v>
+        <v>0.4225821709770118</v>
       </c>
       <c r="BH43">
-        <v>0.7178810248723515</v>
+        <v>0.717852759070129</v>
       </c>
       <c r="BI43">
         <v>-0.274</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.264368377729885</v>
+        <v>0.2643486464080459</v>
       </c>
       <c r="AZ44">
-        <v>0.4367374987864024</v>
+        <v>0.4367240953502479</v>
       </c>
       <c r="BA44">
         <v>-0.194</v>
@@ -8755,7 +8755,7 @@
         <v>-0.046125</v>
       </c>
       <c r="BC44">
-        <v>0.00758</v>
+        <v>0.007575</v>
       </c>
       <c r="BD44">
         <v>0.526</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.4867215853448278</v>
+        <v>0.486658217528736</v>
       </c>
       <c r="BH44">
-        <v>0.8547777948410867</v>
+        <v>0.8546739347439134</v>
       </c>
       <c r="BI44">
         <v>-0.306</v>
@@ -8779,7 +8779,7 @@
         <v>-0.028125</v>
       </c>
       <c r="BK44">
-        <v>0.006875</v>
+        <v>0.00687</v>
       </c>
       <c r="BL44">
         <v>0.83275</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.2737664232758619</v>
+        <v>0.2737419515804596</v>
       </c>
       <c r="AZ45">
-        <v>0.454585859938156</v>
+        <v>0.4545753579867952</v>
       </c>
       <c r="BA45">
         <v>-0.212</v>
@@ -8952,7 +8952,7 @@
         <v>-0.048875</v>
       </c>
       <c r="BC45">
-        <v>0.007515</v>
+        <v>0.007505</v>
       </c>
       <c r="BD45">
         <v>0.52825</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.5057622099137934</v>
+        <v>0.5057131692528737</v>
       </c>
       <c r="BH45">
-        <v>0.8790680813308932</v>
+        <v>0.8789987640592355</v>
       </c>
       <c r="BI45">
         <v>-0.335</v>
@@ -8976,10 +8976,10 @@
         <v>-0.028675</v>
       </c>
       <c r="BK45">
-        <v>0.006675</v>
+        <v>0.006665</v>
       </c>
       <c r="BL45">
-        <v>0.8634999999999999</v>
+        <v>0.86275</v>
       </c>
       <c r="BM45">
         <v>4.05</v>
@@ -9017,10 +9017,10 @@
         <v>696</v>
       </c>
       <c r="K46">
-        <v>39.05933908046001</v>
+        <v>39.05761494252897</v>
       </c>
       <c r="L46">
-        <v>0.8292488548537645</v>
+        <v>0.8282247990156164</v>
       </c>
       <c r="M46">
         <v>38.4</v>
@@ -9041,22 +9041,22 @@
         <v>696</v>
       </c>
       <c r="S46">
-        <v>4.939870689655175</v>
+        <v>4.937945402298853</v>
       </c>
       <c r="T46">
-        <v>1.837760479599307</v>
+        <v>1.838029114120048</v>
       </c>
       <c r="U46">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V46">
-        <v>3.2025</v>
+        <v>3.195</v>
       </c>
       <c r="W46">
         <v>4.66</v>
       </c>
       <c r="X46">
-        <v>6.2925</v>
+        <v>6.2975</v>
       </c>
       <c r="Y46">
         <v>8.85</v>
@@ -9065,10 +9065,10 @@
         <v>696</v>
       </c>
       <c r="AA46">
-        <v>38.8176724137931</v>
+        <v>38.81781609195401</v>
       </c>
       <c r="AB46">
-        <v>1.119617502330897</v>
+        <v>1.119467422488953</v>
       </c>
       <c r="AC46">
         <v>36.5</v>
@@ -9089,10 +9089,10 @@
         <v>696</v>
       </c>
       <c r="AI46">
-        <v>129.1317528735632</v>
+        <v>129.1281609195403</v>
       </c>
       <c r="AJ46">
-        <v>55.40129609503142</v>
+        <v>55.39513793232197</v>
       </c>
       <c r="AK46">
         <v>54.1</v>
@@ -9113,10 +9113,10 @@
         <v>696</v>
       </c>
       <c r="AQ46">
-        <v>1.377140086206897</v>
+        <v>1.377053879310345</v>
       </c>
       <c r="AR46">
-        <v>0.92127291457233</v>
+        <v>0.9212234693461395</v>
       </c>
       <c r="AS46">
         <v>0.0565</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.2456191465517242</v>
+        <v>0.2456073750000002</v>
       </c>
       <c r="AZ46">
-        <v>0.3980342649657239</v>
+        <v>0.3980227363519008</v>
       </c>
       <c r="BA46">
         <v>-0.225</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.4444659885057473</v>
+        <v>0.4443876652298852</v>
       </c>
       <c r="BH46">
-        <v>0.7326123712915296</v>
+        <v>0.7324926598042102</v>
       </c>
       <c r="BI46">
         <v>-0.355</v>
@@ -9176,7 +9176,7 @@
         <v>0.00894</v>
       </c>
       <c r="BL46">
-        <v>0.852</v>
+        <v>0.85175</v>
       </c>
       <c r="BM46">
         <v>3.36</v>
@@ -9214,10 +9214,10 @@
         <v>696</v>
       </c>
       <c r="K47">
-        <v>39.03893678160944</v>
+        <v>39.03879310344853</v>
       </c>
       <c r="L47">
-        <v>0.8110166044467486</v>
+        <v>0.8107662120842273</v>
       </c>
       <c r="M47">
         <v>38.4</v>
@@ -9238,10 +9238,10 @@
         <v>696</v>
       </c>
       <c r="S47">
-        <v>4.919597701149419</v>
+        <v>4.919511494252868</v>
       </c>
       <c r="T47">
-        <v>1.853775182661269</v>
+        <v>1.853753661821498</v>
       </c>
       <c r="U47">
         <v>2.31</v>
@@ -9256,7 +9256,7 @@
         <v>6.3</v>
       </c>
       <c r="Y47">
-        <v>8.859999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="Z47">
         <v>696</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.2264893692528737</v>
+        <v>0.2264627557471266</v>
       </c>
       <c r="AZ47">
-        <v>0.3712319486195028</v>
+        <v>0.3712203887239654</v>
       </c>
       <c r="BA47">
         <v>-0.239</v>
@@ -9358,16 +9358,16 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.4073127859195405</v>
+        <v>0.4072718031609199</v>
       </c>
       <c r="BH47">
-        <v>0.674033720617322</v>
+        <v>0.6739730199317279</v>
       </c>
       <c r="BI47">
         <v>-0.376</v>
       </c>
       <c r="BJ47">
-        <v>-0.02825</v>
+        <v>-0.028275</v>
       </c>
       <c r="BK47">
         <v>0.007949999999999999</v>
@@ -9411,10 +9411,10 @@
         <v>696</v>
       </c>
       <c r="K48">
-        <v>39.03146551724162</v>
+        <v>39.03160919540254</v>
       </c>
       <c r="L48">
-        <v>0.8022637980657751</v>
+        <v>0.802231238933689</v>
       </c>
       <c r="M48">
         <v>38.4</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.1950939209770114</v>
+        <v>0.1950667413793103</v>
       </c>
       <c r="AZ48">
-        <v>0.3296469055788792</v>
+        <v>0.3296290799192795</v>
       </c>
       <c r="BA48">
         <v>-0.237</v>
@@ -9546,7 +9546,7 @@
         <v>0.0145</v>
       </c>
       <c r="BD48">
-        <v>0.3815</v>
+        <v>0.38075</v>
       </c>
       <c r="BE48">
         <v>1.46</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.3396014626436785</v>
+        <v>0.3395588017241383</v>
       </c>
       <c r="BH48">
-        <v>0.5882068323907023</v>
+        <v>0.5881451866161614</v>
       </c>
       <c r="BI48">
         <v>-0.373</v>
@@ -9680,10 +9680,10 @@
         <v>696</v>
       </c>
       <c r="AI49">
-        <v>128.8755747126437</v>
+        <v>128.8770114942529</v>
       </c>
       <c r="AJ49">
-        <v>55.52899436777666</v>
+        <v>55.52844046958307</v>
       </c>
       <c r="AK49">
         <v>53.8</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.2144049439655171</v>
+        <v>0.2143719626436781</v>
       </c>
       <c r="AZ49">
-        <v>0.3486628509298293</v>
+        <v>0.3486115829326656</v>
       </c>
       <c r="BA49">
         <v>-0.23</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.3756311982758626</v>
+        <v>0.3756139497126441</v>
       </c>
       <c r="BH49">
-        <v>0.6287379625436317</v>
+        <v>0.6287316801954782</v>
       </c>
       <c r="BI49">
         <v>-0.361</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.2620640359195402</v>
+        <v>0.262046952586207</v>
       </c>
       <c r="AZ50">
-        <v>0.428755312579927</v>
+        <v>0.4287469113736073</v>
       </c>
       <c r="BA50">
         <v>-0.225</v>
@@ -9949,22 +9949,22 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.4771083908045974</v>
+        <v>0.4770657456896548</v>
       </c>
       <c r="BH50">
-        <v>0.829577430325359</v>
+        <v>0.8294609186435389</v>
       </c>
       <c r="BI50">
         <v>-0.353</v>
       </c>
       <c r="BJ50">
-        <v>-0.019875</v>
+        <v>-0.0199</v>
       </c>
       <c r="BK50">
         <v>0.0101</v>
       </c>
       <c r="BL50">
-        <v>0.8182499999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="BM50">
         <v>4.13</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.2588377729885058</v>
+        <v>0.2588211537356322</v>
       </c>
       <c r="AZ51">
-        <v>0.4127346171546439</v>
+        <v>0.4127219566292471</v>
       </c>
       <c r="BA51">
         <v>-0.233</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.4659346465517242</v>
+        <v>0.4659059454022988</v>
       </c>
       <c r="BH51">
-        <v>0.7698420902357721</v>
+        <v>0.7698179986032726</v>
       </c>
       <c r="BI51">
         <v>-0.365</v>
@@ -10223,10 +10223,10 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>4.882887931034489</v>
+        <v>4.882729885057477</v>
       </c>
       <c r="T52">
-        <v>1.873103643519207</v>
+        <v>1.8730844846523</v>
       </c>
       <c r="U52">
         <v>2.24</v>
@@ -10247,10 +10247,10 @@
         <v>696</v>
       </c>
       <c r="AA52">
-        <v>38.78692528735627</v>
+        <v>38.78678160919535</v>
       </c>
       <c r="AB52">
-        <v>1.052172141806045</v>
+        <v>1.052286575571939</v>
       </c>
       <c r="AC52">
         <v>36.9</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>128.5594827586207</v>
+        <v>128.5593390804598</v>
       </c>
       <c r="AJ52">
-        <v>55.47296700394968</v>
+        <v>55.4730448418237</v>
       </c>
       <c r="AK52">
         <v>53.4</v>
@@ -10319,10 +10319,10 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.2220791038793105</v>
+        <v>0.2220886109195405</v>
       </c>
       <c r="AZ52">
-        <v>0.3532896518309497</v>
+        <v>0.3533278696997496</v>
       </c>
       <c r="BA52">
         <v>-0.248</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.3928970581896548</v>
+        <v>0.3928694143678158</v>
       </c>
       <c r="BH52">
-        <v>0.6380919682838536</v>
+        <v>0.6380722492624795</v>
       </c>
       <c r="BI52">
         <v>-0.39</v>
@@ -10423,7 +10423,7 @@
         <v>4.872571839080465</v>
       </c>
       <c r="T53">
-        <v>1.886934439127531</v>
+        <v>1.886963643898014</v>
       </c>
       <c r="U53">
         <v>2.2</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.1931315646551724</v>
+        <v>0.1931163893678161</v>
       </c>
       <c r="AZ53">
-        <v>0.3287709244071291</v>
+        <v>0.3287638409386268</v>
       </c>
       <c r="BA53">
         <v>-0.262</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.337148861781609</v>
+        <v>0.3371288946839079</v>
       </c>
       <c r="BH53">
-        <v>0.584194326629802</v>
+        <v>0.5841880806053671</v>
       </c>
       <c r="BI53">
         <v>-0.411</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.1969650229885057</v>
+        <v>0.196944165229885</v>
       </c>
       <c r="AZ54">
-        <v>0.3352861113119898</v>
+        <v>0.3352708867325047</v>
       </c>
       <c r="BA54">
         <v>-0.278</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.3579517577586208</v>
+        <v>0.357907866954023</v>
       </c>
       <c r="BH54">
-        <v>0.6261237321466712</v>
+        <v>0.6260668503084345</v>
       </c>
       <c r="BI54">
         <v>-0.435</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.2032870337643677</v>
+        <v>0.2032671195402298</v>
       </c>
       <c r="AZ55">
-        <v>0.4109184877335487</v>
+        <v>0.4109076824934415</v>
       </c>
       <c r="BA55">
         <v>-0.282</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.4022795879310344</v>
+        <v>0.4022513550287355</v>
       </c>
       <c r="BH55">
-        <v>0.8251624303937204</v>
+        <v>0.8251384047233423</v>
       </c>
       <c r="BI55">
         <v>-0.441</v>
@@ -10949,7 +10949,7 @@
         <v>0.005185</v>
       </c>
       <c r="BL55">
-        <v>0.5595000000000001</v>
+        <v>0.5587500000000001</v>
       </c>
       <c r="BM55">
         <v>4.31</v>
@@ -10987,10 +10987,10 @@
         <v>696</v>
       </c>
       <c r="K56">
-        <v>39.03663793103472</v>
+        <v>39.03850574712668</v>
       </c>
       <c r="L56">
-        <v>0.8137096266403818</v>
+        <v>0.8143038214548571</v>
       </c>
       <c r="M56">
         <v>38.3</v>
@@ -11011,10 +11011,10 @@
         <v>696</v>
       </c>
       <c r="S56">
-        <v>4.917227011494253</v>
+        <v>4.918850574712643</v>
       </c>
       <c r="T56">
-        <v>1.855541321133753</v>
+        <v>1.855603095918521</v>
       </c>
       <c r="U56">
         <v>2.22</v>
@@ -11026,10 +11026,10 @@
         <v>4.615</v>
       </c>
       <c r="X56">
-        <v>6.2925</v>
+        <v>6.295</v>
       </c>
       <c r="Y56">
-        <v>8.949999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="Z56">
         <v>696</v>
@@ -11059,10 +11059,10 @@
         <v>696</v>
       </c>
       <c r="AI56">
-        <v>128.6765804597702</v>
+        <v>128.6824712643678</v>
       </c>
       <c r="AJ56">
-        <v>55.48544417668622</v>
+        <v>55.48725624835308</v>
       </c>
       <c r="AK56">
         <v>52.3</v>
@@ -11083,10 +11083,10 @@
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>1.372698994252874</v>
+        <v>1.37279525862069</v>
       </c>
       <c r="AR56">
-        <v>0.9209937996723744</v>
+        <v>0.9210638440243183</v>
       </c>
       <c r="AS56">
         <v>0.0561</v>
@@ -11107,16 +11107,16 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.2186114239942528</v>
+        <v>0.2186165136494252</v>
       </c>
       <c r="AZ56">
-        <v>0.4275794534235461</v>
+        <v>0.4275645732954137</v>
       </c>
       <c r="BA56">
         <v>-0.218</v>
       </c>
       <c r="BB56">
-        <v>-0.0015275</v>
+        <v>-0.00153</v>
       </c>
       <c r="BC56">
         <v>0.04205</v>
@@ -11131,16 +11131,16 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.4295539641235633</v>
+        <v>0.4296026606609196</v>
       </c>
       <c r="BH56">
-        <v>0.8926670323488125</v>
+        <v>0.892846635465761</v>
       </c>
       <c r="BI56">
         <v>-0.341</v>
       </c>
       <c r="BJ56">
-        <v>-0.001335</v>
+        <v>-0.00135</v>
       </c>
       <c r="BK56">
         <v>0.03285</v>
@@ -11304,19 +11304,19 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.2071299317528736</v>
+        <v>0.2071192195402299</v>
       </c>
       <c r="AZ57">
-        <v>0.4371925492120976</v>
+        <v>0.4371854731013463</v>
       </c>
       <c r="BA57">
         <v>-0.191</v>
       </c>
       <c r="BB57">
-        <v>-0.008932500000000001</v>
+        <v>-0.00893</v>
       </c>
       <c r="BC57">
-        <v>0.02445</v>
+        <v>0.0244</v>
       </c>
       <c r="BD57">
         <v>0.195</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.4223383554597701</v>
+        <v>0.4223195656609195</v>
       </c>
       <c r="BH57">
-        <v>0.9121198861712935</v>
+        <v>0.9121169109892903</v>
       </c>
       <c r="BI57">
         <v>-0.3</v>
@@ -11405,10 +11405,10 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>4.935919540229882</v>
+        <v>4.935660919540227</v>
       </c>
       <c r="T58">
-        <v>1.845367137632401</v>
+        <v>1.845291693218297</v>
       </c>
       <c r="U58">
         <v>2.34</v>
@@ -11423,7 +11423,7 @@
         <v>6.3025</v>
       </c>
       <c r="Y58">
-        <v>8.859999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="Z58">
         <v>696</v>
@@ -11453,10 +11453,10 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>129.032040229885</v>
+        <v>129.0318965517241</v>
       </c>
       <c r="AJ58">
-        <v>55.50164007561636</v>
+        <v>55.50173309753096</v>
       </c>
       <c r="AK58">
         <v>54</v>
@@ -11477,10 +11477,10 @@
         <v>696</v>
       </c>
       <c r="AQ58">
-        <v>1.375513218390803</v>
+        <v>1.375508908045976</v>
       </c>
       <c r="AR58">
-        <v>0.9216490319053523</v>
+        <v>0.9216528942785585</v>
       </c>
       <c r="AS58">
         <v>0.0565</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.2018415913793103</v>
+        <v>0.2018119656609195</v>
       </c>
       <c r="AZ58">
-        <v>0.4381782464875682</v>
+        <v>0.4381034917500452</v>
       </c>
       <c r="BA58">
         <v>-0.197</v>
@@ -11525,10 +11525,10 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.4175477106321838</v>
+        <v>0.4174950991379307</v>
       </c>
       <c r="BH58">
-        <v>0.911275759461906</v>
+        <v>0.9111997961823086</v>
       </c>
       <c r="BI58">
         <v>-0.309</v>
@@ -11537,10 +11537,10 @@
         <v>-0.010775</v>
       </c>
       <c r="BK58">
-        <v>0.008775</v>
+        <v>0.00877</v>
       </c>
       <c r="BL58">
-        <v>0.3005</v>
+        <v>0.30025</v>
       </c>
       <c r="BM58">
         <v>4.49</v>
@@ -11578,10 +11578,10 @@
         <v>696</v>
       </c>
       <c r="K59">
-        <v>39.04640804597724</v>
+        <v>39.04669540229908</v>
       </c>
       <c r="L59">
-        <v>0.8127146269839022</v>
+        <v>0.8126273221106337</v>
       </c>
       <c r="M59">
         <v>38.4</v>
@@ -11602,10 +11602,10 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>4.929698275862068</v>
+        <v>4.93014367816092</v>
       </c>
       <c r="T59">
-        <v>1.851754228233648</v>
+        <v>1.851754830032827</v>
       </c>
       <c r="U59">
         <v>2.32</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>128.9908045977011</v>
+        <v>128.9938218390804</v>
       </c>
       <c r="AJ59">
-        <v>55.53333150576028</v>
+        <v>55.53372639694554</v>
       </c>
       <c r="AK59">
         <v>53.9</v>
@@ -11674,10 +11674,10 @@
         <v>696</v>
       </c>
       <c r="AQ59">
-        <v>1.375176867816091</v>
+        <v>1.375208477011493</v>
       </c>
       <c r="AR59">
-        <v>0.9217577399679105</v>
+        <v>0.9217870122599916</v>
       </c>
       <c r="AS59">
         <v>0.0564</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.198160674281609</v>
+        <v>0.1981707614942528</v>
       </c>
       <c r="AZ59">
-        <v>0.3472023805720009</v>
+        <v>0.347239602190102</v>
       </c>
       <c r="BA59">
         <v>-0.207</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.3892240251436778</v>
+        <v>0.3892488070402295</v>
       </c>
       <c r="BH59">
-        <v>0.726811215322607</v>
+        <v>0.7268895599348181</v>
       </c>
       <c r="BI59">
         <v>-0.325</v>
@@ -11734,7 +11734,7 @@
         <v>-0.0141</v>
       </c>
       <c r="BK59">
-        <v>0.005795</v>
+        <v>0.005785</v>
       </c>
       <c r="BL59">
         <v>0.6475</v>
@@ -11775,10 +11775,10 @@
         <v>696</v>
       </c>
       <c r="K60">
-        <v>39.03735632183933</v>
+        <v>39.03706896551749</v>
       </c>
       <c r="L60">
-        <v>0.8079717350567565</v>
+        <v>0.8078247020200251</v>
       </c>
       <c r="M60">
         <v>38.4</v>
@@ -11799,10 +11799,10 @@
         <v>696</v>
       </c>
       <c r="S60">
-        <v>4.918663793103444</v>
+        <v>4.918232758620686</v>
       </c>
       <c r="T60">
-        <v>1.857654457235182</v>
+        <v>1.85760204607252</v>
       </c>
       <c r="U60">
         <v>2.3</v>
@@ -11817,7 +11817,7 @@
         <v>6.3075</v>
       </c>
       <c r="Y60">
-        <v>8.869999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Z60">
         <v>696</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>128.8748563218391</v>
+        <v>128.8747126436782</v>
       </c>
       <c r="AJ60">
-        <v>55.53127642914249</v>
+        <v>55.53139542290604</v>
       </c>
       <c r="AK60">
         <v>53.8</v>
@@ -11871,10 +11871,10 @@
         <v>696</v>
       </c>
       <c r="AQ60">
-        <v>1.37443146551724</v>
+        <v>1.374430028735631</v>
       </c>
       <c r="AR60">
-        <v>0.9217450284169554</v>
+        <v>0.9217457245169756</v>
       </c>
       <c r="AS60">
         <v>0.0564</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.2118038520114944</v>
+        <v>0.2117685617816094</v>
       </c>
       <c r="AZ60">
-        <v>0.3381755789213556</v>
+        <v>0.3381184709725901</v>
       </c>
       <c r="BA60">
         <v>-0.217</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.3906988343390801</v>
+        <v>0.390642807614942</v>
       </c>
       <c r="BH60">
-        <v>0.6738610531110416</v>
+        <v>0.6738101554780147</v>
       </c>
       <c r="BI60">
         <v>-0.341</v>
@@ -11931,10 +11931,10 @@
         <v>-0.0163</v>
       </c>
       <c r="BK60">
-        <v>0.007655</v>
+        <v>0.007650000000000001</v>
       </c>
       <c r="BL60">
-        <v>0.7395</v>
+        <v>0.73925</v>
       </c>
       <c r="BM60">
         <v>3.33</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.2223318863505749</v>
+        <v>0.2223104346264368</v>
       </c>
       <c r="AZ61">
-        <v>0.3505762262130175</v>
+        <v>0.3505584626049403</v>
       </c>
       <c r="BA61">
         <v>-0.226</v>
@@ -12104,7 +12104,7 @@
         <v>-0.028325</v>
       </c>
       <c r="BC61">
-        <v>0.01335</v>
+        <v>0.0133</v>
       </c>
       <c r="BD61">
         <v>0.4515</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.4026344288793103</v>
+        <v>0.4026025852011495</v>
       </c>
       <c r="BH61">
-        <v>0.6873141950759922</v>
+        <v>0.6872953400138629</v>
       </c>
       <c r="BI61">
         <v>-0.354</v>
@@ -12217,10 +12217,10 @@
         <v>696</v>
       </c>
       <c r="AA62">
-        <v>38.79094827586205</v>
+        <v>38.79109195402297</v>
       </c>
       <c r="AB62">
-        <v>1.053499119336634</v>
+        <v>1.05330228918179</v>
       </c>
       <c r="AC62">
         <v>37</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.2256272091954023</v>
+        <v>0.225610148275862</v>
       </c>
       <c r="AZ62">
-        <v>0.3519810063058863</v>
+        <v>0.3519743208329147</v>
       </c>
       <c r="BA62">
         <v>-0.231</v>
@@ -12301,7 +12301,7 @@
         <v>-0.027875</v>
       </c>
       <c r="BC62">
-        <v>0.0166</v>
+        <v>0.01655</v>
       </c>
       <c r="BD62">
         <v>0.46</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.4045963844827589</v>
+        <v>0.4045745041666669</v>
       </c>
       <c r="BH62">
-        <v>0.6821635265949141</v>
+        <v>0.682155938443758</v>
       </c>
       <c r="BI62">
         <v>-0.362</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.2273848438218394</v>
+        <v>0.2273636870689658</v>
       </c>
       <c r="AZ63">
-        <v>0.3522768773930244</v>
+        <v>0.352264996661677</v>
       </c>
       <c r="BA63">
         <v>-0.231</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.4055960012931037</v>
+        <v>0.4055786288793107</v>
       </c>
       <c r="BH63">
-        <v>0.6809667173911456</v>
+        <v>0.6809624681983453</v>
       </c>
       <c r="BI63">
         <v>-0.363</v>
@@ -12563,10 +12563,10 @@
         <v>696</v>
       </c>
       <c r="K64">
-        <v>39.00905172413819</v>
+        <v>39.01048850574739</v>
       </c>
       <c r="L64">
-        <v>0.7944166441578416</v>
+        <v>0.7949421352707646</v>
       </c>
       <c r="M64">
         <v>38.4</v>
@@ -12587,25 +12587,25 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>4.886063218390809</v>
+        <v>4.888390804597704</v>
       </c>
       <c r="T64">
-        <v>1.871579186706454</v>
+        <v>1.871598246604301</v>
       </c>
       <c r="U64">
         <v>2.25</v>
       </c>
       <c r="V64">
-        <v>3.1075</v>
+        <v>3.11</v>
       </c>
       <c r="W64">
-        <v>4.595</v>
+        <v>4.6</v>
       </c>
       <c r="X64">
-        <v>6.2825</v>
+        <v>6.29</v>
       </c>
       <c r="Y64">
-        <v>8.84</v>
+        <v>8.85</v>
       </c>
       <c r="Z64">
         <v>696</v>
@@ -12635,10 +12635,10 @@
         <v>696</v>
       </c>
       <c r="AI64">
-        <v>128.526867816092</v>
+        <v>128.5435344827586</v>
       </c>
       <c r="AJ64">
-        <v>55.48340665255175</v>
+        <v>55.4959220863018</v>
       </c>
       <c r="AK64">
         <v>53.4</v>
@@ -12659,16 +12659,16 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>1.371889511494253</v>
+        <v>1.371985775862069</v>
       </c>
       <c r="AR64">
-        <v>0.9211258459498801</v>
+        <v>0.9212544826002489</v>
       </c>
       <c r="AS64">
         <v>0.0563</v>
       </c>
       <c r="AT64">
-        <v>0.6365000000000001</v>
+        <v>0.63675</v>
       </c>
       <c r="AU64">
         <v>1.285</v>
@@ -12677,16 +12677,16 @@
         <v>1.87</v>
       </c>
       <c r="AW64">
-        <v>5.41</v>
+        <v>5.42</v>
       </c>
       <c r="AX64">
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.2276179022557471</v>
+        <v>0.2276038047988505</v>
       </c>
       <c r="AZ64">
-        <v>0.3511106939112126</v>
+        <v>0.351103059078312</v>
       </c>
       <c r="BA64">
         <v>-0.232</v>
@@ -12698,7 +12698,7 @@
         <v>0.0206</v>
       </c>
       <c r="BD64">
-        <v>0.471</v>
+        <v>0.47025</v>
       </c>
       <c r="BE64">
         <v>1.42</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.4049403832614945</v>
+        <v>0.4049213192959773</v>
       </c>
       <c r="BH64">
-        <v>0.6778081609785624</v>
+        <v>0.6778055560417932</v>
       </c>
       <c r="BI64">
         <v>-0.364</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>128.4975574712644</v>
+        <v>128.4977011494254</v>
       </c>
       <c r="AJ65">
-        <v>55.49711439575646</v>
+        <v>55.4970162698101</v>
       </c>
       <c r="AK65">
         <v>53.3</v>
@@ -12880,16 +12880,16 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.22376933637931</v>
+        <v>0.2237464505603445</v>
       </c>
       <c r="AZ65">
-        <v>0.3454676452836063</v>
+        <v>0.3454468129017507</v>
       </c>
       <c r="BA65">
         <v>-0.238</v>
       </c>
       <c r="BB65">
-        <v>-0.025375</v>
+        <v>-0.02545</v>
       </c>
       <c r="BC65">
         <v>0.021</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.3923102886781608</v>
+        <v>0.3922784146120689</v>
       </c>
       <c r="BH65">
-        <v>0.6326666397091286</v>
+        <v>0.6326318370640978</v>
       </c>
       <c r="BI65">
         <v>-0.373</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.2285880309741379</v>
+        <v>0.2285782084770114</v>
       </c>
       <c r="AZ66">
-        <v>0.3661314432787105</v>
+        <v>0.3661273006178943</v>
       </c>
       <c r="BA66">
         <v>-0.248</v>
@@ -13101,10 +13101,10 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.4041571456336204</v>
+        <v>0.404088611781609</v>
       </c>
       <c r="BH66">
-        <v>0.6656058093691538</v>
+        <v>0.6655247571710846</v>
       </c>
       <c r="BI66">
         <v>-0.388</v>
@@ -13202,10 +13202,10 @@
         <v>696</v>
       </c>
       <c r="AA67">
-        <v>38.74152298850576</v>
+        <v>38.74166666666668</v>
       </c>
       <c r="AB67">
-        <v>1.050693491870613</v>
+        <v>1.050530298883807</v>
       </c>
       <c r="AC67">
         <v>36.7</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.2315290862068965</v>
+        <v>0.2315069712643678</v>
       </c>
       <c r="AZ67">
-        <v>0.3736376782149868</v>
+        <v>0.3736277681804038</v>
       </c>
       <c r="BA67">
         <v>-0.254</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.4126434439655176</v>
+        <v>0.4126146896551728</v>
       </c>
       <c r="BH67">
-        <v>0.6834484887603788</v>
+        <v>0.68342500322231</v>
       </c>
       <c r="BI67">
         <v>-0.398</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>4.843376436781615</v>
+        <v>4.843390804597707</v>
       </c>
       <c r="T68">
-        <v>1.894801128637057</v>
+        <v>1.894826123911577</v>
       </c>
       <c r="U68">
         <v>2.16</v>
@@ -13447,10 +13447,10 @@
         <v>696</v>
       </c>
       <c r="AQ68">
-        <v>1.367499425287356</v>
+        <v>1.367500862068965</v>
       </c>
       <c r="AR68">
-        <v>0.9197868031357541</v>
+        <v>0.9197856502245326</v>
       </c>
       <c r="AS68">
         <v>0.0561</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.2300786106321839</v>
+        <v>0.2300556350574712</v>
       </c>
       <c r="AZ68">
-        <v>0.3745484543374258</v>
+        <v>0.3745299531279508</v>
       </c>
       <c r="BA68">
         <v>-0.263</v>
@@ -13483,7 +13483,7 @@
         <v>-0.034225</v>
       </c>
       <c r="BC68">
-        <v>0.01845</v>
+        <v>0.0184</v>
       </c>
       <c r="BD68">
         <v>0.451</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.4115626609195401</v>
+        <v>0.4115162442528736</v>
       </c>
       <c r="BH68">
-        <v>0.6846129241883416</v>
+        <v>0.6845155160489255</v>
       </c>
       <c r="BI68">
         <v>-0.412</v>
@@ -13507,13 +13507,13 @@
         <v>-0.02035</v>
       </c>
       <c r="BK68">
-        <v>0.009885</v>
+        <v>0.009875</v>
       </c>
       <c r="BL68">
         <v>0.804</v>
       </c>
       <c r="BM68">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="69" spans="1:65">
@@ -13596,10 +13596,10 @@
         <v>696</v>
       </c>
       <c r="AA69">
-        <v>38.72413793103449</v>
+        <v>38.72428160919541</v>
       </c>
       <c r="AB69">
-        <v>1.042640865874851</v>
+        <v>1.042534019115831</v>
       </c>
       <c r="AC69">
         <v>36.7</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.2317892227011492</v>
+        <v>0.2317324181034481</v>
       </c>
       <c r="AZ69">
-        <v>0.3741652571639961</v>
+        <v>0.3739888012001754</v>
       </c>
       <c r="BA69">
         <v>-0.261</v>
@@ -13680,7 +13680,7 @@
         <v>-0.029</v>
       </c>
       <c r="BC69">
-        <v>0.0206</v>
+        <v>0.02055</v>
       </c>
       <c r="BD69">
         <v>0.446</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.4130221140804596</v>
+        <v>0.4129376318965515</v>
       </c>
       <c r="BH69">
-        <v>0.6843187456708959</v>
+        <v>0.6841798336606143</v>
       </c>
       <c r="BI69">
         <v>-0.408</v>
@@ -13745,10 +13745,10 @@
         <v>696</v>
       </c>
       <c r="K70">
-        <v>38.97801724137954</v>
+        <v>38.97701149425311</v>
       </c>
       <c r="L70">
-        <v>0.7680805411465156</v>
+        <v>0.7674982097868158</v>
       </c>
       <c r="M70">
         <v>38.4</v>
@@ -13769,22 +13769,22 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>4.851379310344829</v>
+        <v>4.849123563218392</v>
       </c>
       <c r="T70">
-        <v>1.88992995030708</v>
+        <v>1.889915519170697</v>
       </c>
       <c r="U70">
         <v>2.18</v>
       </c>
       <c r="V70">
-        <v>3.0375</v>
+        <v>3.03</v>
       </c>
       <c r="W70">
-        <v>4.545</v>
+        <v>4.54</v>
       </c>
       <c r="X70">
-        <v>6.27</v>
+        <v>6.2625</v>
       </c>
       <c r="Y70">
         <v>8.83</v>
@@ -13817,10 +13817,10 @@
         <v>696</v>
       </c>
       <c r="AI70">
-        <v>128.1202586206897</v>
+        <v>128.1155172413793</v>
       </c>
       <c r="AJ70">
-        <v>55.5175687320566</v>
+        <v>55.51935319339241</v>
       </c>
       <c r="AK70">
         <v>52.1</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>1.367738218390804</v>
+        <v>1.367653448275861</v>
       </c>
       <c r="AR70">
-        <v>0.9198451270201531</v>
+        <v>0.9198052610690215</v>
       </c>
       <c r="AS70">
         <v>0.0561</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.2363021395114944</v>
+        <v>0.2362443844827588</v>
       </c>
       <c r="AZ70">
-        <v>0.3703847632512828</v>
+        <v>0.3702816794700352</v>
       </c>
       <c r="BA70">
         <v>-0.248</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.417455828017242</v>
+        <v>0.4174176277298857</v>
       </c>
       <c r="BH70">
-        <v>0.6819012347770628</v>
+        <v>0.681870666833931</v>
       </c>
       <c r="BI70">
         <v>-0.388</v>
@@ -13942,10 +13942,10 @@
         <v>696</v>
       </c>
       <c r="K71">
-        <v>38.98103448275886</v>
+        <v>38.98117816091978</v>
       </c>
       <c r="L71">
-        <v>0.7699665088226284</v>
+        <v>0.7699046319601731</v>
       </c>
       <c r="M71">
         <v>38.4</v>
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>4.854252873563218</v>
+        <v>4.85426724137931</v>
       </c>
       <c r="T71">
-        <v>1.887756771421913</v>
+        <v>1.88775746304197</v>
       </c>
       <c r="U71">
         <v>2.19</v>
@@ -14038,10 +14038,10 @@
         <v>696</v>
       </c>
       <c r="AQ71">
-        <v>1.368056609195403</v>
+        <v>1.368058045977012</v>
       </c>
       <c r="AR71">
-        <v>0.9197378106764507</v>
+        <v>0.9197367647767118</v>
       </c>
       <c r="AS71">
         <v>0.0561</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.2393863002873565</v>
+        <v>0.239362485632184</v>
       </c>
       <c r="AZ71">
-        <v>0.3751342995202098</v>
+        <v>0.3751184432145292</v>
       </c>
       <c r="BA71">
         <v>-0.243</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.4227538517241379</v>
+        <v>0.4227183022988505</v>
       </c>
       <c r="BH71">
-        <v>0.6903501863691004</v>
+        <v>0.6903094775310795</v>
       </c>
       <c r="BI71">
         <v>-0.381</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.2431171586206898</v>
+        <v>0.2431033112068967</v>
       </c>
       <c r="AZ72">
-        <v>0.376179774899328</v>
+        <v>0.3761684251774408</v>
       </c>
       <c r="BA72">
         <v>-0.248</v>
@@ -14271,7 +14271,7 @@
         <v>-0.02295</v>
       </c>
       <c r="BC72">
-        <v>0.0227</v>
+        <v>0.02265</v>
       </c>
       <c r="BD72">
         <v>0.49275</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.4350201445402294</v>
+        <v>0.4349513882183906</v>
       </c>
       <c r="BH72">
-        <v>0.71409373287319</v>
+        <v>0.7140090776928613</v>
       </c>
       <c r="BI72">
         <v>-0.388</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.2348494291666666</v>
+        <v>0.2348399322126435</v>
       </c>
       <c r="AZ73">
-        <v>0.3658293851610851</v>
+        <v>0.3658250821402293</v>
       </c>
       <c r="BA73">
         <v>-0.26</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.4220992677586206</v>
+        <v>0.4220668053017239</v>
       </c>
       <c r="BH73">
-        <v>0.7063194478361658</v>
+        <v>0.7062712710129715</v>
       </c>
       <c r="BI73">
         <v>-0.407</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.2379655731321841</v>
+        <v>0.2379530777298852</v>
       </c>
       <c r="AZ74">
-        <v>0.3710627047961169</v>
+        <v>0.3710578492601907</v>
       </c>
       <c r="BA74">
         <v>-0.26</v>
@@ -14665,7 +14665,7 @@
         <v>-0.025725</v>
       </c>
       <c r="BC74">
-        <v>0.0222</v>
+        <v>0.02215</v>
       </c>
       <c r="BD74">
         <v>0.51225</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.4264636587068967</v>
+        <v>0.42644711737069</v>
       </c>
       <c r="BH74">
-        <v>0.717153671338192</v>
+        <v>0.7171493358578092</v>
       </c>
       <c r="BI74">
         <v>-0.407</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>4.828864942528744</v>
+        <v>4.828893678160927</v>
       </c>
       <c r="T75">
-        <v>1.902518816327828</v>
+        <v>1.902515581245221</v>
       </c>
       <c r="U75">
         <v>2.14</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.2286700760057472</v>
+        <v>0.2286518820402301</v>
       </c>
       <c r="AZ75">
-        <v>0.3545657721774487</v>
+        <v>0.3545503741093987</v>
       </c>
       <c r="BA75">
         <v>-0.265</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.4045928880747126</v>
+        <v>0.4045721462643677</v>
       </c>
       <c r="BH75">
-        <v>0.6594865411671056</v>
+        <v>0.6594811437276987</v>
       </c>
       <c r="BI75">
         <v>-0.415</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.2148595439655171</v>
+        <v>0.2148459145114941</v>
       </c>
       <c r="AZ76">
-        <v>0.3382687743605205</v>
+        <v>0.3382578751545531</v>
       </c>
       <c r="BA76">
         <v>-0.266</v>
@@ -15059,7 +15059,7 @@
         <v>-0.024075</v>
       </c>
       <c r="BC76">
-        <v>0.0242</v>
+        <v>0.02415</v>
       </c>
       <c r="BD76">
         <v>0.448</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.3718090484195402</v>
+        <v>0.3717791373563218</v>
       </c>
       <c r="BH76">
-        <v>0.6067487589387004</v>
+        <v>0.60671452056071</v>
       </c>
       <c r="BI76">
         <v>-0.415</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.2422699396551723</v>
+        <v>0.2422417658045976</v>
       </c>
       <c r="AZ77">
-        <v>0.3755372828033035</v>
+        <v>0.3754819942860951</v>
       </c>
       <c r="BA77">
         <v>-0.257</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.4301778090517236</v>
+        <v>0.4301435655172409</v>
       </c>
       <c r="BH77">
-        <v>0.718005916640959</v>
+        <v>0.7179552757713763</v>
       </c>
       <c r="BI77">
         <v>-0.402</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.2670682400862069</v>
+        <v>0.2670471107758621</v>
       </c>
       <c r="AZ78">
-        <v>0.4189945324279042</v>
+        <v>0.4189869029546378</v>
       </c>
       <c r="BA78">
         <v>-0.252</v>
@@ -15453,7 +15453,7 @@
         <v>-0.020375</v>
       </c>
       <c r="BC78">
-        <v>0.024</v>
+        <v>0.02395</v>
       </c>
       <c r="BD78">
         <v>0.52025</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.4809091505747133</v>
+        <v>0.4808790147988513</v>
       </c>
       <c r="BH78">
-        <v>0.820687593153829</v>
+        <v>0.8206567235561792</v>
       </c>
       <c r="BI78">
         <v>-0.395</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.2595335443965517</v>
+        <v>0.2595197676724137</v>
       </c>
       <c r="AZ79">
-        <v>0.3907268211136464</v>
+        <v>0.3907209971587841</v>
       </c>
       <c r="BA79">
         <v>-0.246</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.4593280666666666</v>
+        <v>0.4592915186781607</v>
       </c>
       <c r="BH79">
-        <v>0.7405805859480846</v>
+        <v>0.7405352766296751</v>
       </c>
       <c r="BI79">
         <v>-0.386</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.2438692485632181</v>
+        <v>0.2438206077586204</v>
       </c>
       <c r="AZ80">
-        <v>0.3705294227593458</v>
+        <v>0.370447946378645</v>
       </c>
       <c r="BA80">
         <v>-0.247</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.4306766221264364</v>
+        <v>0.4306639209770111</v>
       </c>
       <c r="BH80">
-        <v>0.6929031833078189</v>
+        <v>0.6928997972059089</v>
       </c>
       <c r="BI80">
         <v>-0.387</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.2313926153735633</v>
+        <v>0.2313802918103451</v>
       </c>
       <c r="AZ81">
-        <v>0.3578432442802461</v>
+        <v>0.3578406165353828</v>
       </c>
       <c r="BA81">
         <v>-0.252</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.406467303448276</v>
+        <v>0.4064521781609194</v>
       </c>
       <c r="BH81">
-        <v>0.6568816595532805</v>
+        <v>0.656877574098149</v>
       </c>
       <c r="BI81">
         <v>-0.394</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.2380999655172414</v>
+        <v>0.2380896795977011</v>
       </c>
       <c r="AZ82">
-        <v>0.3679687941588541</v>
+        <v>0.3679613557961454</v>
       </c>
       <c r="BA82">
         <v>-0.245</v>
@@ -16253,10 +16253,10 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.4173441307471261</v>
+        <v>0.4173132715517239</v>
       </c>
       <c r="BH82">
-        <v>0.6771445519783081</v>
+        <v>0.6771140306818689</v>
       </c>
       <c r="BI82">
         <v>-0.383</v>
@@ -16268,7 +16268,7 @@
         <v>0.0201</v>
       </c>
       <c r="BL82">
-        <v>0.81225</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="BM82">
         <v>3.17</v>
@@ -16426,10 +16426,10 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.2401810267528738</v>
+        <v>0.2401339233333335</v>
       </c>
       <c r="AZ83">
-        <v>0.3596273062381136</v>
+        <v>0.3595315990924228</v>
       </c>
       <c r="BA83">
         <v>-0.232</v>
@@ -16438,7 +16438,7 @@
         <v>-0.01075</v>
       </c>
       <c r="BC83">
-        <v>0.0281</v>
+        <v>0.02805</v>
       </c>
       <c r="BD83">
         <v>0.44425</v>
@@ -16450,10 +16450,10 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.4171041479166672</v>
+        <v>0.417067280114943</v>
       </c>
       <c r="BH83">
-        <v>0.663377818623839</v>
+        <v>0.6633507632674057</v>
       </c>
       <c r="BI83">
         <v>-0.363</v>
@@ -16623,16 +16623,16 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.2539685375000002</v>
+        <v>0.2539576350574715</v>
       </c>
       <c r="AZ84">
-        <v>0.3738032133715998</v>
+        <v>0.3738009713753429</v>
       </c>
       <c r="BA84">
         <v>-0.212</v>
       </c>
       <c r="BB84">
-        <v>-0.00638</v>
+        <v>-0.0063875</v>
       </c>
       <c r="BC84">
         <v>0.03075</v>
@@ -16647,22 +16647,22 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.4408607135057473</v>
+        <v>0.4408034873563222</v>
       </c>
       <c r="BH84">
-        <v>0.6992540080481734</v>
+        <v>0.6991581193353372</v>
       </c>
       <c r="BI84">
         <v>-0.332</v>
       </c>
       <c r="BJ84">
-        <v>-0.00646</v>
+        <v>-0.006467499999999999</v>
       </c>
       <c r="BK84">
-        <v>0.02575</v>
+        <v>0.0257</v>
       </c>
       <c r="BL84">
-        <v>0.8252499999999999</v>
+        <v>0.8242499999999999</v>
       </c>
       <c r="BM84">
         <v>3.19</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.284706906896552</v>
+        <v>0.2846944002873566</v>
       </c>
       <c r="AZ85">
-        <v>0.4259728710603212</v>
+        <v>0.4259638577031112</v>
       </c>
       <c r="BA85">
         <v>-0.196</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.5038666653735634</v>
+        <v>0.5038468221264368</v>
       </c>
       <c r="BH85">
-        <v>0.8331197583301742</v>
+        <v>0.8331189892048774</v>
       </c>
       <c r="BI85">
         <v>-0.307</v>
@@ -16859,7 +16859,7 @@
         <v>0.02635</v>
       </c>
       <c r="BL85">
-        <v>0.844</v>
+        <v>0.8432499999999999</v>
       </c>
       <c r="BM85">
         <v>3.87</v>
@@ -17017,16 +17017,16 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.2684290712643679</v>
+        <v>0.268421479310345</v>
       </c>
       <c r="AZ86">
-        <v>0.3789679554861224</v>
+        <v>0.3789659753346036</v>
       </c>
       <c r="BA86">
         <v>-0.183</v>
       </c>
       <c r="BB86">
-        <v>-0.0022725</v>
+        <v>-0.002275</v>
       </c>
       <c r="BC86">
         <v>0.03575</v>
@@ -17041,10 +17041,10 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.4632823553160921</v>
+        <v>0.4632677514367817</v>
       </c>
       <c r="BH86">
-        <v>0.7137011543403043</v>
+        <v>0.7136986794981145</v>
       </c>
       <c r="BI86">
         <v>-0.287</v>
@@ -17214,10 +17214,10 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.2548796264367815</v>
+        <v>0.254869528735632</v>
       </c>
       <c r="AZ87">
-        <v>0.3684495665499204</v>
+        <v>0.3684454708653124</v>
       </c>
       <c r="BA87">
         <v>-0.186</v>
@@ -17238,16 +17238,16 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.4400662352011495</v>
+        <v>0.4400295854885058</v>
       </c>
       <c r="BH87">
-        <v>0.6865129633676799</v>
+        <v>0.6864965458898848</v>
       </c>
       <c r="BI87">
         <v>-0.293</v>
       </c>
       <c r="BJ87">
-        <v>-0.0066375</v>
+        <v>-0.006645</v>
       </c>
       <c r="BK87">
         <v>0.0272</v>
@@ -17291,10 +17291,10 @@
         <v>696</v>
       </c>
       <c r="K88">
-        <v>39.04655172413817</v>
+        <v>39.04425287356345</v>
       </c>
       <c r="L88">
-        <v>0.8178333581098968</v>
+        <v>0.8174684659346122</v>
       </c>
       <c r="M88">
         <v>38.4</v>
@@ -17315,25 +17315,25 @@
         <v>696</v>
       </c>
       <c r="S88">
-        <v>4.930991379310345</v>
+        <v>4.92866379310345</v>
       </c>
       <c r="T88">
-        <v>1.846736189963597</v>
+        <v>1.846769786312527</v>
       </c>
       <c r="U88">
         <v>2.34</v>
       </c>
       <c r="V88">
-        <v>3.1825</v>
+        <v>3.18</v>
       </c>
       <c r="W88">
-        <v>4.66</v>
+        <v>4.655</v>
       </c>
       <c r="X88">
-        <v>6.3075</v>
+        <v>6.3</v>
       </c>
       <c r="Y88">
-        <v>8.869999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="Z88">
         <v>696</v>
@@ -17363,10 +17363,10 @@
         <v>696</v>
       </c>
       <c r="AI88">
-        <v>128.9293103448276</v>
+        <v>128.9215517241379</v>
       </c>
       <c r="AJ88">
-        <v>55.4872541209547</v>
+        <v>55.47965751664495</v>
       </c>
       <c r="AK88">
         <v>54</v>
@@ -17387,16 +17387,16 @@
         <v>696</v>
       </c>
       <c r="AQ88">
-        <v>1.374885344827586</v>
+        <v>1.374834913793104</v>
       </c>
       <c r="AR88">
-        <v>0.9215856627570248</v>
+        <v>0.9215848156797641</v>
       </c>
       <c r="AS88">
         <v>0.0564</v>
       </c>
       <c r="AT88">
-        <v>0.64225</v>
+        <v>0.642</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -17411,10 +17411,10 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.2499272758620689</v>
+        <v>0.2498968290229885</v>
       </c>
       <c r="AZ88">
-        <v>0.3693518232985356</v>
+        <v>0.3693201470702436</v>
       </c>
       <c r="BA88">
         <v>-0.194</v>
@@ -17423,7 +17423,7 @@
         <v>-0.0098675</v>
       </c>
       <c r="BC88">
-        <v>0.02905</v>
+        <v>0.029</v>
       </c>
       <c r="BD88">
         <v>0.459</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.4351765244252872</v>
+        <v>0.4351543372126434</v>
       </c>
       <c r="BH88">
-        <v>0.6882850739736535</v>
+        <v>0.6882774247025594</v>
       </c>
       <c r="BI88">
         <v>-0.304</v>
@@ -17608,10 +17608,10 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.2588631681034482</v>
+        <v>0.2588505689655172</v>
       </c>
       <c r="AZ89">
-        <v>0.3916304594970927</v>
+        <v>0.391623308343615</v>
       </c>
       <c r="BA89">
         <v>-0.203</v>
@@ -17632,10 +17632,10 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.4586428076149422</v>
+        <v>0.4586168163793101</v>
       </c>
       <c r="BH89">
-        <v>0.7440541767312173</v>
+        <v>0.7440360331672466</v>
       </c>
       <c r="BI89">
         <v>-0.319</v>
@@ -17644,10 +17644,10 @@
         <v>-0.011025</v>
       </c>
       <c r="BK89">
-        <v>0.0218</v>
+        <v>0.0217</v>
       </c>
       <c r="BL89">
-        <v>0.829</v>
+        <v>0.8282499999999999</v>
       </c>
       <c r="BM89">
         <v>3.2</v>
@@ -17685,10 +17685,10 @@
         <v>696</v>
       </c>
       <c r="K90">
-        <v>39.01522988505773</v>
+        <v>39.01810344827612</v>
       </c>
       <c r="L90">
-        <v>0.7966102313841338</v>
+        <v>0.7971819941074288</v>
       </c>
       <c r="M90">
         <v>38.4</v>
@@ -17703,31 +17703,31 @@
         <v>39.3</v>
       </c>
       <c r="Q90">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="R90">
         <v>696</v>
       </c>
       <c r="S90">
-        <v>4.892672413793112</v>
+        <v>4.896623563218398</v>
       </c>
       <c r="T90">
-        <v>1.866177576547615</v>
+        <v>1.866089654239529</v>
       </c>
       <c r="U90">
         <v>2.26</v>
       </c>
       <c r="V90">
-        <v>3.115</v>
+        <v>3.12</v>
       </c>
       <c r="W90">
         <v>4.61</v>
       </c>
       <c r="X90">
-        <v>6.279999999999999</v>
+        <v>6.295</v>
       </c>
       <c r="Y90">
-        <v>8.84</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Z90">
         <v>696</v>
@@ -17757,10 +17757,10 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>128.592672413793</v>
+        <v>128.605172413793</v>
       </c>
       <c r="AJ90">
-        <v>55.45714960789183</v>
+        <v>55.46891308229668</v>
       </c>
       <c r="AK90">
         <v>53.5</v>
@@ -17775,16 +17775,16 @@
         <v>139.5</v>
       </c>
       <c r="AO90">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP90">
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>1.37230488505747</v>
+        <v>1.372372701149424</v>
       </c>
       <c r="AR90">
-        <v>0.9208372662168921</v>
+        <v>0.9208845491510924</v>
       </c>
       <c r="AS90">
         <v>0.0563</v>
@@ -17805,19 +17805,19 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.2404513344396553</v>
+        <v>0.2404386033189657</v>
       </c>
       <c r="AZ90">
-        <v>0.3648084071989018</v>
+        <v>0.364806695070195</v>
       </c>
       <c r="BA90">
         <v>-0.229</v>
       </c>
       <c r="BB90">
-        <v>-0.025075</v>
+        <v>-0.02515</v>
       </c>
       <c r="BC90">
-        <v>0.02125</v>
+        <v>0.0212</v>
       </c>
       <c r="BD90">
         <v>0.51</v>
@@ -17829,10 +17829,10 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.431095660158046</v>
+        <v>0.4310730546839081</v>
       </c>
       <c r="BH90">
-        <v>0.7119392890805469</v>
+        <v>0.711916903381166</v>
       </c>
       <c r="BI90">
         <v>-0.36</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>1.37001896551724</v>
+        <v>1.370047701149424</v>
       </c>
       <c r="AR91">
-        <v>0.9202422424507964</v>
+        <v>0.9202556878791049</v>
       </c>
       <c r="AS91">
         <v>0.0562</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.2329895550287356</v>
+        <v>0.2329756867816092</v>
       </c>
       <c r="AZ91">
-        <v>0.3622049129245701</v>
+        <v>0.3621934872823549</v>
       </c>
       <c r="BA91">
         <v>-0.245</v>
@@ -18026,10 +18026,10 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.4171141215517239</v>
+        <v>0.4170775287356319</v>
       </c>
       <c r="BH91">
-        <v>0.7004647293865998</v>
+        <v>0.7004070226174723</v>
       </c>
       <c r="BI91">
         <v>-0.385</v>
@@ -18103,10 +18103,10 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>4.858922413793104</v>
+        <v>4.858936781609196</v>
       </c>
       <c r="T92">
-        <v>1.884629189644724</v>
+        <v>1.884640229857593</v>
       </c>
       <c r="U92">
         <v>2.2</v>
@@ -18199,10 +18199,10 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.2372269604885058</v>
+        <v>0.2372147056034483</v>
       </c>
       <c r="AZ92">
-        <v>0.3672872883576477</v>
+        <v>0.3672845603618162</v>
       </c>
       <c r="BA92">
         <v>-0.247</v>
@@ -18223,10 +18223,10 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.4240692047413796</v>
+        <v>0.4240234797413797</v>
       </c>
       <c r="BH92">
-        <v>0.7128944699089892</v>
+        <v>0.7128373539704946</v>
       </c>
       <c r="BI92">
         <v>-0.387</v>
@@ -18396,10 +18396,10 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.2658530962643676</v>
+        <v>0.2658381178160918</v>
       </c>
       <c r="AZ93">
-        <v>0.4236732702706543</v>
+        <v>0.4236675372476152</v>
       </c>
       <c r="BA93">
         <v>-0.248</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.4802850156609198</v>
+        <v>0.4802610696839082</v>
       </c>
       <c r="BH93">
-        <v>0.8236973641167361</v>
+        <v>0.8236839078755149</v>
       </c>
       <c r="BI93">
         <v>-0.389</v>
@@ -18545,10 +18545,10 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>128.1494252873564</v>
+        <v>128.1508620689656</v>
       </c>
       <c r="AJ94">
-        <v>55.46912836081058</v>
+        <v>55.4699415586672</v>
       </c>
       <c r="AK94">
         <v>52.7</v>
@@ -18593,10 +18593,10 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.2563564264367817</v>
+        <v>0.2563394696839081</v>
       </c>
       <c r="AZ94">
-        <v>0.3927337643418434</v>
+        <v>0.3927271639521861</v>
       </c>
       <c r="BA94">
         <v>-0.242</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.4524286169540229</v>
+        <v>0.4524020077586204</v>
       </c>
       <c r="BH94">
-        <v>0.7294458625796174</v>
+        <v>0.7294305486522646</v>
       </c>
       <c r="BI94">
         <v>-0.378</v>
@@ -18632,7 +18632,7 @@
         <v>0.0188</v>
       </c>
       <c r="BL94">
-        <v>0.85725</v>
+        <v>0.857</v>
       </c>
       <c r="BM94">
         <v>3.33</v>
@@ -18790,10 +18790,10 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.2472997097701152</v>
+        <v>0.2472829956896555</v>
       </c>
       <c r="AZ95">
-        <v>0.3772871292783957</v>
+        <v>0.3772784033006482</v>
       </c>
       <c r="BA95">
         <v>-0.236</v>
@@ -18802,7 +18802,7 @@
         <v>-0.015375</v>
       </c>
       <c r="BC95">
-        <v>0.02755</v>
+        <v>0.0275</v>
       </c>
       <c r="BD95">
         <v>0.466</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.4337692025862068</v>
+        <v>0.4337584640804596</v>
       </c>
       <c r="BH95">
-        <v>0.6992165542141122</v>
+        <v>0.6992123590338757</v>
       </c>
       <c r="BI95">
         <v>-0.37</v>
@@ -18829,7 +18829,7 @@
         <v>0.0214</v>
       </c>
       <c r="BL95">
-        <v>0.84075</v>
+        <v>0.8405</v>
       </c>
       <c r="BM95">
         <v>3.39</v>
@@ -18987,10 +18987,10 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.2473007475574711</v>
+        <v>0.2472768754310343</v>
       </c>
       <c r="AZ96">
-        <v>0.3723314161542289</v>
+        <v>0.3722946221831305</v>
       </c>
       <c r="BA96">
         <v>-0.226</v>
@@ -19002,7 +19002,7 @@
         <v>0.0286</v>
       </c>
       <c r="BD96">
-        <v>0.4445</v>
+        <v>0.44425</v>
       </c>
       <c r="BE96">
         <v>1.59</v>
@@ -19011,10 +19011,10 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.4324669267241381</v>
+        <v>0.4324026909482759</v>
       </c>
       <c r="BH96">
-        <v>0.6950235810728461</v>
+        <v>0.6949332736746286</v>
       </c>
       <c r="BI96">
         <v>-0.353</v>
@@ -19184,16 +19184,16 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.2470573678160922</v>
+        <v>0.2470376163793106</v>
       </c>
       <c r="AZ97">
-        <v>0.3726177470560514</v>
+        <v>0.3726055034813236</v>
       </c>
       <c r="BA97">
         <v>-0.221</v>
       </c>
       <c r="BB97">
-        <v>-0.0106</v>
+        <v>-0.010625</v>
       </c>
       <c r="BC97">
         <v>0.02825</v>
@@ -19208,10 +19208,10 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.4323335867816087</v>
+        <v>0.4322952204022984</v>
       </c>
       <c r="BH97">
-        <v>0.6957703034850328</v>
+        <v>0.6957341195297966</v>
       </c>
       <c r="BI97">
         <v>-0.347</v>
@@ -19220,7 +19220,7 @@
         <v>-0.0101</v>
       </c>
       <c r="BK97">
-        <v>0.0237</v>
+        <v>0.02365</v>
       </c>
       <c r="BL97">
         <v>0.823</v>
@@ -19381,10 +19381,10 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.2433121695402299</v>
+        <v>0.2432870485632184</v>
       </c>
       <c r="AZ98">
-        <v>0.3695612876389652</v>
+        <v>0.3695047221783382</v>
       </c>
       <c r="BA98">
         <v>-0.224</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.4271564669540226</v>
+        <v>0.4271453778735628</v>
       </c>
       <c r="BH98">
-        <v>0.6892060864571173</v>
+        <v>0.6892030621905748</v>
       </c>
       <c r="BI98">
         <v>-0.352</v>
@@ -19506,10 +19506,10 @@
         <v>696</v>
       </c>
       <c r="AA99">
-        <v>38.76020114942526</v>
+        <v>38.76034482758618</v>
       </c>
       <c r="AB99">
-        <v>1.057516822553802</v>
+        <v>1.057379356685399</v>
       </c>
       <c r="AC99">
         <v>36.8</v>
@@ -19578,10 +19578,10 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.2427689497126434</v>
+        <v>0.2427467715517238</v>
       </c>
       <c r="AZ99">
-        <v>0.3682727658768589</v>
+        <v>0.3682284248097563</v>
       </c>
       <c r="BA99">
         <v>-0.223</v>
@@ -19602,10 +19602,10 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.4255899540229883</v>
+        <v>0.4255644698275859</v>
       </c>
       <c r="BH99">
-        <v>0.6848422557871928</v>
+        <v>0.6848336116358549</v>
       </c>
       <c r="BI99">
         <v>-0.35</v>
@@ -19703,10 +19703,10 @@
         <v>696</v>
       </c>
       <c r="AA100">
-        <v>38.76307471264364</v>
+        <v>38.76321839080456</v>
       </c>
       <c r="AB100">
-        <v>1.057022436762845</v>
+        <v>1.05695258349068</v>
       </c>
       <c r="AC100">
         <v>36.8</v>
@@ -19751,10 +19751,10 @@
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>1.370760632183908</v>
+        <v>1.370775</v>
       </c>
       <c r="AR100">
-        <v>0.9202696015055257</v>
+        <v>0.9202742018378792</v>
       </c>
       <c r="AS100">
         <v>0.0563</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.2427780125</v>
+        <v>0.2427656353448276</v>
       </c>
       <c r="AZ100">
-        <v>0.3660596714613765</v>
+        <v>0.3660523769452992</v>
       </c>
       <c r="BA100">
         <v>-0.221</v>
@@ -19787,7 +19787,7 @@
         <v>-0.011625</v>
       </c>
       <c r="BC100">
-        <v>0.02725</v>
+        <v>0.0272</v>
       </c>
       <c r="BD100">
         <v>0.43725</v>
@@ -19799,10 +19799,10 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.4244508879310345</v>
+        <v>0.4243962783045976</v>
       </c>
       <c r="BH100">
-        <v>0.6786068494430416</v>
+        <v>0.6785413750752923</v>
       </c>
       <c r="BI100">
         <v>-0.346</v>
@@ -19811,7 +19811,7 @@
         <v>-0.011125</v>
       </c>
       <c r="BK100">
-        <v>0.02275</v>
+        <v>0.0227</v>
       </c>
       <c r="BL100">
         <v>0.8174999999999999</v>
@@ -19900,10 +19900,10 @@
         <v>696</v>
       </c>
       <c r="AA101">
-        <v>38.76206896551721</v>
+        <v>38.76221264367813</v>
       </c>
       <c r="AB101">
-        <v>1.057592365944033</v>
+        <v>1.057359404418994</v>
       </c>
       <c r="AC101">
         <v>36.7</v>
@@ -19972,16 +19972,16 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.2408244860919541</v>
+        <v>0.240807928520115</v>
       </c>
       <c r="AZ101">
-        <v>0.3668668389175057</v>
+        <v>0.3668579262204086</v>
       </c>
       <c r="BA101">
         <v>-0.224</v>
       </c>
       <c r="BB101">
-        <v>-0.013625</v>
+        <v>-0.0137</v>
       </c>
       <c r="BC101">
         <v>0.0265</v>
@@ -19996,10 +19996,10 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.4220515140517243</v>
+        <v>0.422014860244253</v>
       </c>
       <c r="BH101">
-        <v>0.6772451824307442</v>
+        <v>0.6772101462740743</v>
       </c>
       <c r="BI101">
         <v>-0.352</v>
@@ -20169,10 +20169,10 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.2399930982327586</v>
+        <v>0.239975724683908</v>
       </c>
       <c r="AZ102">
-        <v>0.3671171032958343</v>
+        <v>0.3671086547955667</v>
       </c>
       <c r="BA102">
         <v>-0.227</v>
@@ -20181,7 +20181,7 @@
         <v>-0.0146</v>
       </c>
       <c r="BC102">
-        <v>0.026</v>
+        <v>0.02595</v>
       </c>
       <c r="BD102">
         <v>0.44825</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.4206286525732763</v>
+        <v>0.4206086382169544</v>
       </c>
       <c r="BH102">
-        <v>0.6751659016479138</v>
+        <v>0.675159913711595</v>
       </c>
       <c r="BI102">
         <v>-0.355</v>
@@ -20208,7 +20208,7 @@
         <v>0.02115</v>
       </c>
       <c r="BL102">
-        <v>0.8132499999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="BM102">
         <v>3.05</v>
@@ -20366,10 +20366,10 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.2406232270114943</v>
+        <v>0.2406097169540231</v>
       </c>
       <c r="AZ103">
-        <v>0.3648083019616561</v>
+        <v>0.3647975828251738</v>
       </c>
       <c r="BA103">
         <v>-0.228</v>
@@ -20378,7 +20378,7 @@
         <v>-0.014875</v>
       </c>
       <c r="BC103">
-        <v>0.0258</v>
+        <v>0.02575</v>
       </c>
       <c r="BD103">
         <v>0.459</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.4224212945402305</v>
+        <v>0.4224118132183915</v>
       </c>
       <c r="BH103">
-        <v>0.6744870307452283</v>
+        <v>0.6744857690637018</v>
       </c>
       <c r="BI103">
         <v>-0.357</v>
@@ -20443,16 +20443,16 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>38.94066091954015</v>
+        <v>38.94353448275854</v>
       </c>
       <c r="L104">
-        <v>0.7866871581886998</v>
+        <v>0.7863867878494607</v>
       </c>
       <c r="M104">
         <v>38.3</v>
       </c>
       <c r="N104">
-        <v>38.3</v>
+        <v>38.375</v>
       </c>
       <c r="O104">
         <v>38.5</v>
@@ -20461,31 +20461,31 @@
         <v>39.2</v>
       </c>
       <c r="Q104">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="R104">
         <v>696</v>
       </c>
       <c r="S104">
-        <v>4.821724137931041</v>
+        <v>4.823721264367823</v>
       </c>
       <c r="T104">
-        <v>1.878010937301793</v>
+        <v>1.877966856353319</v>
       </c>
       <c r="U104">
         <v>2.17</v>
       </c>
       <c r="V104">
-        <v>3.0325</v>
+        <v>3.035</v>
       </c>
       <c r="W104">
         <v>4.53</v>
       </c>
       <c r="X104">
-        <v>6.23</v>
+        <v>6.245</v>
       </c>
       <c r="Y104">
-        <v>8.800000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="Z104">
         <v>696</v>
@@ -20515,10 +20515,10 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>128.2020114942529</v>
+        <v>128.2100574712644</v>
       </c>
       <c r="AJ104">
-        <v>55.47125715222966</v>
+        <v>55.47230081486191</v>
       </c>
       <c r="AK104">
         <v>53.2</v>
@@ -20530,7 +20530,7 @@
         <v>113</v>
       </c>
       <c r="AN104">
-        <v>138.75</v>
+        <v>139.5</v>
       </c>
       <c r="AO104">
         <v>409</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>1.368010201149425</v>
+        <v>1.368097988505747</v>
       </c>
       <c r="AR104">
-        <v>0.9191405913060497</v>
+        <v>0.9191719237476852</v>
       </c>
       <c r="AS104">
         <v>0.0561</v>
@@ -20554,7 +20554,7 @@
         <v>1.28</v>
       </c>
       <c r="AV104">
-        <v>1.8625</v>
+        <v>1.87</v>
       </c>
       <c r="AW104">
         <v>5.41</v>
@@ -20563,10 +20563,10 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.2341762502873564</v>
+        <v>0.2341943297413794</v>
       </c>
       <c r="AZ104">
-        <v>0.3488099855917582</v>
+        <v>0.3488280552986439</v>
       </c>
       <c r="BA104">
         <v>-0.231</v>
@@ -20578,7 +20578,7 @@
         <v>0.02585</v>
       </c>
       <c r="BD104">
-        <v>0.50475</v>
+        <v>0.505</v>
       </c>
       <c r="BE104">
         <v>1.31</v>
@@ -20587,10 +20587,10 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.4133416000000006</v>
+        <v>0.4133654758620696</v>
       </c>
       <c r="BH104">
-        <v>0.6728332817168805</v>
+        <v>0.6728849867965631</v>
       </c>
       <c r="BI104">
         <v>-0.361</v>
@@ -20640,10 +20640,10 @@
         <v>696</v>
       </c>
       <c r="K105">
-        <v>38.93606321839073</v>
+        <v>38.93620689655165</v>
       </c>
       <c r="L105">
-        <v>0.7875696275884752</v>
+        <v>0.7875721606375924</v>
       </c>
       <c r="M105">
         <v>38.3</v>
@@ -20688,10 +20688,10 @@
         <v>696</v>
       </c>
       <c r="AA105">
-        <v>38.75344827586208</v>
+        <v>38.753591954023</v>
       </c>
       <c r="AB105">
-        <v>1.047004445125297</v>
+        <v>1.046839037955888</v>
       </c>
       <c r="AC105">
         <v>37.1</v>
@@ -20760,10 +20760,10 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.2350499425287353</v>
+        <v>0.2350215488505744</v>
       </c>
       <c r="AZ105">
-        <v>0.351694524509523</v>
+        <v>0.3516386687548513</v>
       </c>
       <c r="BA105">
         <v>-0.231</v>
@@ -20772,7 +20772,7 @@
         <v>-0.015275</v>
       </c>
       <c r="BC105">
-        <v>0.02605</v>
+        <v>0.026</v>
       </c>
       <c r="BD105">
         <v>0.50575</v>
@@ -20784,10 +20784,10 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.4130293160919543</v>
+        <v>0.4130113649425291</v>
       </c>
       <c r="BH105">
-        <v>0.6774606714855992</v>
+        <v>0.6774572807875592</v>
       </c>
       <c r="BI105">
         <v>-0.362</v>
@@ -20837,10 +20837,10 @@
         <v>696</v>
       </c>
       <c r="K106">
-        <v>38.93678160919531</v>
+        <v>38.94324712643669</v>
       </c>
       <c r="L106">
-        <v>0.7894615146871229</v>
+        <v>0.788905317051612</v>
       </c>
       <c r="M106">
         <v>38.3</v>
@@ -20852,34 +20852,34 @@
         <v>38.5</v>
       </c>
       <c r="P106">
-        <v>39.2</v>
+        <v>39.225</v>
       </c>
       <c r="Q106">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="R106">
         <v>696</v>
       </c>
       <c r="S106">
-        <v>4.818807471264373</v>
+        <v>4.824497126436786</v>
       </c>
       <c r="T106">
-        <v>1.876084361819457</v>
+        <v>1.876130421443327</v>
       </c>
       <c r="U106">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="V106">
-        <v>3.02</v>
+        <v>3.0325</v>
       </c>
       <c r="W106">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="X106">
-        <v>6.22</v>
+        <v>6.235</v>
       </c>
       <c r="Y106">
-        <v>8.779999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z106">
         <v>696</v>
@@ -20909,13 +20909,13 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>128.185775862069</v>
+        <v>128.2058908045977</v>
       </c>
       <c r="AJ106">
-        <v>55.44911400036928</v>
+        <v>55.46088472998483</v>
       </c>
       <c r="AK106">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="AL106">
         <v>95.80000000000001</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>1.367878879310344</v>
+        <v>1.368165086206896</v>
       </c>
       <c r="AR106">
-        <v>0.9189080197583964</v>
+        <v>0.9190735944429558</v>
       </c>
       <c r="AS106">
         <v>0.0561</v>
@@ -20948,22 +20948,22 @@
         <v>1.28</v>
       </c>
       <c r="AV106">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AW106">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="AX106">
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.2399653764367814</v>
+        <v>0.2399626666666665</v>
       </c>
       <c r="AZ106">
-        <v>0.3562934435950987</v>
+        <v>0.3563112170722753</v>
       </c>
       <c r="BA106">
-        <v>-0.226</v>
+        <v>-0.227</v>
       </c>
       <c r="BB106">
         <v>-0.01375</v>
@@ -20972,7 +20972,7 @@
         <v>0.0268</v>
       </c>
       <c r="BD106">
-        <v>0.50975</v>
+        <v>0.51</v>
       </c>
       <c r="BE106">
         <v>1.33</v>
@@ -20981,10 +20981,10 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.4205405057471268</v>
+        <v>0.4205490560344831</v>
       </c>
       <c r="BH106">
-        <v>0.6875851174541919</v>
+        <v>0.6875982772500343</v>
       </c>
       <c r="BI106">
         <v>-0.355</v>
@@ -20996,7 +20996,7 @@
         <v>0.0218</v>
       </c>
       <c r="BL106">
-        <v>0.80925</v>
+        <v>0.8087500000000001</v>
       </c>
       <c r="BM106">
         <v>3.48</v>
@@ -21082,10 +21082,10 @@
         <v>696</v>
       </c>
       <c r="AA107">
-        <v>38.74971264367815</v>
+        <v>38.74985632183908</v>
       </c>
       <c r="AB107">
-        <v>1.063400235655617</v>
+        <v>1.063319077860111</v>
       </c>
       <c r="AC107">
         <v>37</v>
@@ -21154,10 +21154,10 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.2471767221264369</v>
+        <v>0.2471611754310346</v>
       </c>
       <c r="AZ107">
-        <v>0.3666317474713459</v>
+        <v>0.3666279963873571</v>
       </c>
       <c r="BA107">
         <v>-0.222</v>
@@ -21178,10 +21178,10 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.4333965039655176</v>
+        <v>0.4333571329310348</v>
       </c>
       <c r="BH107">
-        <v>0.7106383439360892</v>
+        <v>0.7105580752742987</v>
       </c>
       <c r="BI107">
         <v>-0.348</v>
@@ -21351,10 +21351,10 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.2497027146551727</v>
+        <v>0.2496931518678164</v>
       </c>
       <c r="AZ108">
-        <v>0.3761208059104153</v>
+        <v>0.3761159675494105</v>
       </c>
       <c r="BA108">
         <v>-0.229</v>
@@ -21375,10 +21375,10 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.4405625158045974</v>
+        <v>0.4405344640804595</v>
       </c>
       <c r="BH108">
-        <v>0.7278197800129315</v>
+        <v>0.7278017346269252</v>
       </c>
       <c r="BI108">
         <v>-0.359</v>
@@ -21452,10 +21452,10 @@
         <v>696</v>
       </c>
       <c r="S109">
-        <v>4.815488505747129</v>
+        <v>4.815502873563221</v>
       </c>
       <c r="T109">
-        <v>1.876997462238292</v>
+        <v>1.877024134865992</v>
       </c>
       <c r="U109">
         <v>2.17</v>
@@ -21548,10 +21548,10 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.2537726120689655</v>
+        <v>0.253743185775862</v>
       </c>
       <c r="AZ109">
-        <v>0.3839083246415975</v>
+        <v>0.3838613697241857</v>
       </c>
       <c r="BA109">
         <v>-0.23</v>
@@ -21572,10 +21572,10 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.4486831580459771</v>
+        <v>0.4486714942528736</v>
       </c>
       <c r="BH109">
-        <v>0.7443535508312142</v>
+        <v>0.7443528534855099</v>
       </c>
       <c r="BI109">
         <v>-0.36</v>
@@ -21745,10 +21745,10 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.2596328275862066</v>
+        <v>0.2596114123563216</v>
       </c>
       <c r="AZ110">
-        <v>0.393901039215049</v>
+        <v>0.393890233844618</v>
       </c>
       <c r="BA110">
         <v>-0.228</v>
@@ -21769,10 +21769,10 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.4595955043103446</v>
+        <v>0.4595703103448274</v>
       </c>
       <c r="BH110">
-        <v>0.7651838105473427</v>
+        <v>0.7651648973086974</v>
       </c>
       <c r="BI110">
         <v>-0.358</v>
@@ -21942,10 +21942,10 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.2616197880747124</v>
+        <v>0.2616076627873561</v>
       </c>
       <c r="AZ111">
-        <v>0.405883959822566</v>
+        <v>0.4058760703002448</v>
       </c>
       <c r="BA111">
         <v>-0.24</v>
@@ -21954,7 +21954,7 @@
         <v>-0.01995</v>
       </c>
       <c r="BC111">
-        <v>0.0242</v>
+        <v>0.02415</v>
       </c>
       <c r="BD111">
         <v>0.51675</v>
@@ -21966,10 +21966,10 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.4665860186781605</v>
+        <v>0.4665551204022986</v>
       </c>
       <c r="BH111">
-        <v>0.7870669472549919</v>
+        <v>0.7870275935598976</v>
       </c>
       <c r="BI111">
         <v>-0.376</v>
@@ -21981,7 +21981,7 @@
         <v>0.0182</v>
       </c>
       <c r="BL111">
-        <v>0.8382499999999999</v>
+        <v>0.838</v>
       </c>
       <c r="BM111">
         <v>3.99</v>
@@ -22139,10 +22139,10 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.2622847054597701</v>
+        <v>0.2622426882183908</v>
       </c>
       <c r="AZ112">
-        <v>0.4214446063747956</v>
+        <v>0.4213629856993418</v>
       </c>
       <c r="BA112">
         <v>-0.325</v>
@@ -22163,10 +22163,10 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.4723719698275859</v>
+        <v>0.4723316393678159</v>
       </c>
       <c r="BH112">
-        <v>0.8129131053424964</v>
+        <v>0.8128684272561949</v>
       </c>
       <c r="BI112">
         <v>-0.507</v>
